--- a/Sponge_Grid_VES.xlsx
+++ b/Sponge_Grid_VES.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E78FBB-A96D-4E9A-8B0F-01E7741A9736}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5793740-7D66-4276-9CFA-4E3BE252831E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,6 @@
     <sheet name="Node（ES&amp;Pmax)" sheetId="2" r:id="rId2"/>
     <sheet name="Node demand" sheetId="6" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,31 +56,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P_max(MWh)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SOC_max（MWh)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线 Light"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>_inv</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,10 +65,6 @@
   </si>
   <si>
     <t>SOC_final(MWh)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_ch_dis_max(MWh)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,7 +80,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bus/Time</t>
+    <t>P_ch_dis_max(MW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_max(MW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus/Time(MW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\eta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\eta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线 Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>^{inv}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,341 +221,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Line(r,x,Sijmax)"/>
-      <sheetName val="Node（ES&amp;Pmax)"/>
-      <sheetName val="Node demand"/>
-      <sheetName val="Grid price"/>
-      <sheetName val="Node price"/>
-      <sheetName val="Algorithm parameters"/>
-      <sheetName val="best_demand"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="AA2">
-            <v>32.872542940920006</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="AA3">
-            <v>55.856182282730011</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="AA4">
-            <v>37.166898071760002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="AA5">
-            <v>22.191568853300002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="AA6">
-            <v>26.548465041895</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="AA7">
-            <v>29.399745136945</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="AA8">
-            <v>19.263258537570003</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="AA9">
-            <v>37.678879833079996</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="AA10">
-            <v>17.161560459634998</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AA11">
-            <v>23.187379785809995</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AA12">
-            <v>23.71734519756</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AA13">
-            <v>39.713528263954998</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AA14">
-            <v>113.0522248552</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="AA15">
-            <v>42.780923825439999</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="AA16">
-            <v>47.252155867999996</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="AA17">
-            <v>32.868678376719991</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="AA18">
-            <v>51.479902883255001</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="AA19">
-            <v>24.753255679559999</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="AA20">
-            <v>40.341860649164992</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="AA21">
-            <v>26.984636325755005</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="AA22">
-            <v>34.907727723095</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="AA23">
-            <v>34.898504443554998</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="AA24">
-            <v>62.273938852625008</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="AA25">
-            <v>102.5891291029</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="AA26">
-            <v>53.843762869449989</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="AA27">
-            <v>32.392342921564989</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="AA28">
-            <v>51.832588551910007</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="AA29">
-            <v>53.877074809279982</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="AA30">
-            <v>56.297181628775007</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="AA31">
-            <v>43.556548756649995</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="AA32">
-            <v>44.209881167190005</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="AA33">
-            <v>52.153240825559976</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>25.970115130814996</v>
-          </cell>
-          <cell r="C35">
-            <v>23.854026527869994</v>
-          </cell>
-          <cell r="D35">
-            <v>23.807757983384999</v>
-          </cell>
-          <cell r="E35">
-            <v>24.169803655430002</v>
-          </cell>
-          <cell r="F35">
-            <v>27.612441898854996</v>
-          </cell>
-          <cell r="G35">
-            <v>30.458137674290001</v>
-          </cell>
-          <cell r="H35">
-            <v>41.573158285169995</v>
-          </cell>
-          <cell r="I35">
-            <v>43.82413767429</v>
-          </cell>
-          <cell r="J35">
-            <v>43.213158285170003</v>
-          </cell>
-          <cell r="K35">
-            <v>33.425392657245006</v>
-          </cell>
-          <cell r="L35">
-            <v>30.989896589325003</v>
-          </cell>
-          <cell r="M35">
-            <v>27.405590893379998</v>
-          </cell>
-          <cell r="N35">
-            <v>27.827411360044998</v>
-          </cell>
-          <cell r="O35">
-            <v>28.864797326590008</v>
-          </cell>
-          <cell r="P35">
-            <v>27.502627860680001</v>
-          </cell>
-          <cell r="Q35">
-            <v>29.572626877785002</v>
-          </cell>
-          <cell r="R35">
-            <v>32.859921387659988</v>
-          </cell>
-          <cell r="S35">
-            <v>49.449538217179992</v>
-          </cell>
-          <cell r="T35">
-            <v>53.005502555090004</v>
-          </cell>
-          <cell r="U35">
-            <v>54.784549396874993</v>
-          </cell>
-          <cell r="V35">
-            <v>52.893163641590014</v>
-          </cell>
-          <cell r="W35">
-            <v>42.343215172469989</v>
-          </cell>
-          <cell r="X35">
-            <v>33.933885578824999</v>
-          </cell>
-          <cell r="Y35">
-            <v>29.762057890795003</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="33">
-          <cell r="A33">
-            <v>25.970115130814996</v>
-          </cell>
-          <cell r="B33">
-            <v>23.854026527869994</v>
-          </cell>
-          <cell r="C33">
-            <v>23.807757983384999</v>
-          </cell>
-          <cell r="D33">
-            <v>24.169803655430002</v>
-          </cell>
-          <cell r="E33">
-            <v>27.612441898854996</v>
-          </cell>
-          <cell r="F33">
-            <v>30.458137674290001</v>
-          </cell>
-          <cell r="G33">
-            <v>41.573158285169995</v>
-          </cell>
-          <cell r="H33">
-            <v>43.82413767429</v>
-          </cell>
-          <cell r="I33">
-            <v>43.213158285170003</v>
-          </cell>
-          <cell r="J33">
-            <v>33.425392657245006</v>
-          </cell>
-          <cell r="K33">
-            <v>30.989896589325003</v>
-          </cell>
-          <cell r="L33">
-            <v>27.405590893379998</v>
-          </cell>
-          <cell r="M33">
-            <v>27.827411360044998</v>
-          </cell>
-          <cell r="N33">
-            <v>28.864797326590008</v>
-          </cell>
-          <cell r="O33">
-            <v>27.502627860680001</v>
-          </cell>
-          <cell r="P33">
-            <v>29.572626877785002</v>
-          </cell>
-          <cell r="Q33">
-            <v>32.859921387659988</v>
-          </cell>
-          <cell r="R33">
-            <v>49.449538217179992</v>
-          </cell>
-          <cell r="S33">
-            <v>53.005502555090004</v>
-          </cell>
-          <cell r="T33">
-            <v>54.784549396874993</v>
-          </cell>
-          <cell r="U33">
-            <v>52.893163641590014</v>
-          </cell>
-          <cell r="V33">
-            <v>42.343215172469989</v>
-          </cell>
-          <cell r="W33">
-            <v>33.933885578824999</v>
-          </cell>
-          <cell r="X33">
-            <v>29.762057890795003</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -827,7 +489,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F2" sqref="F2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -877,7 +539,7 @@
         <v>4.7699999999999999E-2</v>
       </c>
       <c r="F2">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -897,7 +559,7 @@
         <v>0.25109999999999999</v>
       </c>
       <c r="F3">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -917,7 +579,7 @@
         <v>0.18640000000000001</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -957,7 +619,7 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="F6">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1077,7 +739,7 @@
         <v>0.12379999999999999</v>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1509,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0092734-A6C5-45DB-8FD4-27754622C3AB}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1531,7 +1193,7 @@
     <col min="13" max="13" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1539,34 +1201,34 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1574,15 +1236,18 @@
         <v>0.15</v>
       </c>
       <c r="C2">
+        <f t="shared" ref="C2:C33" si="0">B2*5</f>
         <v>0.75</v>
       </c>
       <c r="D2">
         <v>0.9</v>
       </c>
       <c r="E2">
+        <f t="shared" ref="E2:E33" si="1">2.5*B2</f>
         <v>0.375</v>
       </c>
       <c r="F2">
+        <f t="shared" ref="F2:F33" si="2">2.5*B2</f>
         <v>0.375</v>
       </c>
       <c r="G2">
@@ -1592,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="7">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="J2">
         <v>1.1000000000000001</v>
@@ -1604,7 +1269,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1612,15 +1277,18 @@
         <v>0.18</v>
       </c>
       <c r="C3">
+        <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="D3">
         <v>0.9</v>
       </c>
       <c r="E3">
+        <f t="shared" si="1"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="F3">
+        <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="G3">
@@ -1642,7 +1310,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1650,15 +1318,18 @@
         <v>0.16</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="D4">
         <v>0.9</v>
       </c>
       <c r="E4">
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="F4">
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="G4">
@@ -1668,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="J4">
         <v>1.1000000000000001</v>
@@ -1680,7 +1351,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1688,15 +1359,18 @@
         <v>0.5</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="D5">
         <v>0.9</v>
       </c>
       <c r="E5">
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="F5">
+        <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
       <c r="G5">
@@ -1706,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>6</v>
+        <v>5.3333333333333321</v>
       </c>
       <c r="J5">
         <v>1.1000000000000001</v>
@@ -1718,7 +1392,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1726,15 +1400,18 @@
         <v>0.2</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D6">
         <v>0.9</v>
       </c>
       <c r="E6">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="F6">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="G6">
@@ -1756,7 +1433,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1764,15 +1441,18 @@
         <v>0.38</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
       <c r="D7">
         <v>0.9</v>
       </c>
       <c r="E7">
+        <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
       <c r="F7">
+        <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
       <c r="G7">
@@ -1782,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>2</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="J7">
         <v>1.1000000000000001</v>
@@ -1794,7 +1474,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1802,15 +1482,18 @@
         <v>0.4</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D8">
         <v>0.9</v>
       </c>
       <c r="E8">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F8">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G8">
@@ -1820,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="J8">
         <v>1.1000000000000001</v>
@@ -1832,7 +1515,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1840,15 +1523,18 @@
         <v>0.13400000000000001</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
       <c r="D9">
         <v>0.9</v>
       </c>
       <c r="E9">
+        <f t="shared" si="1"/>
         <v>0.33500000000000002</v>
       </c>
       <c r="F9">
+        <f t="shared" si="2"/>
         <v>0.33500000000000002</v>
       </c>
       <c r="G9">
@@ -1858,7 +1544,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="J9">
         <v>1.1000000000000001</v>
@@ -1866,11 +1552,8 @@
       <c r="K9">
         <v>0.94</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1878,15 +1561,18 @@
         <v>0.3</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="D10">
         <v>0.9</v>
       </c>
       <c r="E10">
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="F10">
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="G10">
@@ -1896,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>2</v>
+        <v>1.3333333333333339</v>
       </c>
       <c r="J10">
         <v>1.1000000000000001</v>
@@ -1908,7 +1594,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1916,15 +1602,18 @@
         <v>0.1512</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
         <v>0.75600000000000001</v>
       </c>
       <c r="D11">
         <v>0.9</v>
       </c>
       <c r="E11">
+        <f t="shared" si="1"/>
         <v>0.378</v>
       </c>
       <c r="F11">
+        <f t="shared" si="2"/>
         <v>0.378</v>
       </c>
       <c r="G11">
@@ -1934,7 +1623,7 @@
         <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>2</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="J11">
         <v>1.1000000000000001</v>
@@ -1942,11 +1631,19 @@
       <c r="K11">
         <v>0.94</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1954,15 +1651,18 @@
         <v>0.26</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="D12">
         <v>0.9</v>
       </c>
       <c r="E12">
+        <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
       <c r="F12">
+        <f t="shared" si="2"/>
         <v>0.65</v>
       </c>
       <c r="G12">
@@ -1984,7 +1684,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1992,15 +1692,18 @@
         <v>0.19</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
       <c r="D13">
         <v>0.9</v>
       </c>
       <c r="E13">
+        <f t="shared" si="1"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="F13">
+        <f t="shared" si="2"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="G13">
@@ -2010,7 +1713,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>3</v>
+        <v>2.3333333333333339</v>
       </c>
       <c r="J13">
         <v>1.1000000000000001</v>
@@ -2022,7 +1725,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2030,15 +1733,18 @@
         <v>0.1532</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
         <v>0.76600000000000001</v>
       </c>
       <c r="D14">
         <v>0.9</v>
       </c>
       <c r="E14">
+        <f t="shared" si="1"/>
         <v>0.38300000000000001</v>
       </c>
       <c r="F14">
+        <f t="shared" si="2"/>
         <v>0.38300000000000001</v>
       </c>
       <c r="G14">
@@ -2048,7 +1754,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>3</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="J14">
         <v>1.1000000000000001</v>
@@ -2056,11 +1762,19 @@
       <c r="K14">
         <v>0.94</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2068,15 +1782,18 @@
         <v>0.42</v>
       </c>
       <c r="C15">
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
       <c r="D15">
         <v>0.9</v>
       </c>
       <c r="E15">
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
       <c r="F15">
+        <f t="shared" si="2"/>
         <v>1.05</v>
       </c>
       <c r="G15">
@@ -2086,7 +1803,7 @@
         <v>11</v>
       </c>
       <c r="I15" s="7">
-        <v>6</v>
+        <v>5.3333333333333321</v>
       </c>
       <c r="J15">
         <v>1.1000000000000001</v>
@@ -2098,7 +1815,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2106,15 +1823,18 @@
         <v>0.33</v>
       </c>
       <c r="C16">
+        <f t="shared" si="0"/>
         <v>1.6500000000000001</v>
       </c>
       <c r="D16">
         <v>0.9</v>
       </c>
       <c r="E16">
+        <f t="shared" si="1"/>
         <v>0.82500000000000007</v>
       </c>
       <c r="F16">
+        <f t="shared" si="2"/>
         <v>0.82500000000000007</v>
       </c>
       <c r="G16">
@@ -2124,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>2</v>
+        <v>1.6666666666666601</v>
       </c>
       <c r="J16">
         <v>1.1000000000000001</v>
@@ -2132,9 +1852,6 @@
       <c r="K16">
         <v>0.94</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -2144,15 +1861,18 @@
         <v>0.32919999999999999</v>
       </c>
       <c r="C17">
+        <f t="shared" si="0"/>
         <v>1.6459999999999999</v>
       </c>
       <c r="D17">
         <v>0.9</v>
       </c>
       <c r="E17">
+        <f t="shared" si="1"/>
         <v>0.82299999999999995</v>
       </c>
       <c r="F17">
+        <f t="shared" si="2"/>
         <v>0.82299999999999995</v>
       </c>
       <c r="G17">
@@ -2162,7 +1882,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>2</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="J17">
         <v>1.1000000000000001</v>
@@ -2182,15 +1902,18 @@
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="C18">
+        <f t="shared" si="0"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="D18">
         <v>0.9</v>
       </c>
       <c r="E18">
+        <f t="shared" si="1"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="F18">
+        <f t="shared" si="2"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="G18">
@@ -2200,7 +1923,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="J18">
         <v>1.1000000000000001</v>
@@ -2220,15 +1943,18 @@
         <v>0.54</v>
       </c>
       <c r="C19">
+        <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
       <c r="D19">
         <v>0.9</v>
       </c>
       <c r="E19">
+        <f t="shared" si="1"/>
         <v>1.35</v>
       </c>
       <c r="F19">
+        <f t="shared" si="2"/>
         <v>1.35</v>
       </c>
       <c r="G19">
@@ -2238,7 +1964,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>3</v>
+        <v>2.6666666666666661</v>
       </c>
       <c r="J19">
         <v>1.1000000000000001</v>
@@ -2258,15 +1984,18 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C20">
+        <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="D20">
         <v>0.9</v>
       </c>
       <c r="E20">
+        <f t="shared" si="1"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="F20">
+        <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="G20">
@@ -2276,7 +2005,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>3</v>
+        <v>2.6666666666666661</v>
       </c>
       <c r="J20">
         <v>1.1000000000000001</v>
@@ -2296,15 +2025,18 @@
         <v>5.1200000000000002E-2</v>
       </c>
       <c r="C21">
+        <f t="shared" si="0"/>
         <v>0.25600000000000001</v>
       </c>
       <c r="D21">
         <v>0.9</v>
       </c>
       <c r="E21">
+        <f t="shared" si="1"/>
         <v>0.128</v>
       </c>
       <c r="F21">
+        <f t="shared" si="2"/>
         <v>0.128</v>
       </c>
       <c r="G21">
@@ -2314,7 +2046,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="7">
-        <v>3</v>
+        <v>2.6666666666666661</v>
       </c>
       <c r="J21">
         <v>1.1000000000000001</v>
@@ -2334,15 +2066,18 @@
         <v>0.35</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="D22">
         <v>0.9</v>
       </c>
       <c r="E22">
+        <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
       <c r="F22">
+        <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
       <c r="G22">
@@ -2352,7 +2087,7 @@
         <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>3</v>
+        <v>2.6666666666666661</v>
       </c>
       <c r="J22">
         <v>1.1000000000000001</v>
@@ -2372,15 +2107,18 @@
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="D23">
         <v>0.9</v>
       </c>
       <c r="E23">
+        <f t="shared" si="1"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="F23">
+        <f t="shared" si="2"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="G23">
@@ -2390,7 +2128,7 @@
         <v>6</v>
       </c>
       <c r="I23" s="7">
-        <v>3</v>
+        <v>2.6666666666666661</v>
       </c>
       <c r="J23">
         <v>1.1000000000000001</v>
@@ -2410,15 +2148,18 @@
         <v>0.4</v>
       </c>
       <c r="C24">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D24">
         <v>0.9</v>
       </c>
       <c r="E24">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F24">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G24">
@@ -2428,7 +2169,7 @@
         <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>4</v>
+        <v>3.3333333333333339</v>
       </c>
       <c r="J24">
         <v>1.1000000000000001</v>
@@ -2448,15 +2189,18 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C25">
+        <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
       <c r="D25">
         <v>0.9</v>
       </c>
       <c r="E25">
+        <f t="shared" si="1"/>
         <v>1.45</v>
       </c>
       <c r="F25">
+        <f t="shared" si="2"/>
         <v>1.45</v>
       </c>
       <c r="G25">
@@ -2466,7 +2210,7 @@
         <v>28</v>
       </c>
       <c r="I25" s="7">
-        <v>5</v>
+        <v>4.3333333333333002</v>
       </c>
       <c r="J25">
         <v>1.1000000000000001</v>
@@ -2486,15 +2230,18 @@
         <v>0.8</v>
       </c>
       <c r="C26">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D26">
         <v>0.9</v>
       </c>
       <c r="E26">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F26">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G26">
@@ -2504,7 +2251,7 @@
         <v>28</v>
       </c>
       <c r="I26" s="7">
-        <v>6</v>
+        <v>5.3333333333333002</v>
       </c>
       <c r="J26">
         <v>1.1000000000000001</v>
@@ -2524,15 +2271,18 @@
         <v>0.26</v>
       </c>
       <c r="C27">
+        <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="D27">
         <v>0.9</v>
       </c>
       <c r="E27">
+        <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
       <c r="F27">
+        <f t="shared" si="2"/>
         <v>0.65</v>
       </c>
       <c r="G27">
@@ -2542,7 +2292,7 @@
         <v>4</v>
       </c>
       <c r="I27" s="7">
-        <v>2</v>
+        <v>1.6666666666666663</v>
       </c>
       <c r="J27">
         <v>1.1000000000000001</v>
@@ -2562,15 +2312,18 @@
         <v>0.37</v>
       </c>
       <c r="C28">
+        <f t="shared" si="0"/>
         <v>1.85</v>
       </c>
       <c r="D28">
         <v>0.9</v>
       </c>
       <c r="E28">
+        <f t="shared" si="1"/>
         <v>0.92500000000000004</v>
       </c>
       <c r="F28">
+        <f t="shared" si="2"/>
         <v>0.92500000000000004</v>
       </c>
       <c r="G28">
@@ -2580,7 +2333,7 @@
         <v>8</v>
       </c>
       <c r="I28" s="7">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="J28">
         <v>1.1000000000000001</v>
@@ -2600,15 +2353,18 @@
         <v>0.46</v>
       </c>
       <c r="C29">
+        <f t="shared" si="0"/>
         <v>2.3000000000000003</v>
       </c>
       <c r="D29">
         <v>0.9</v>
       </c>
       <c r="E29">
+        <f t="shared" si="1"/>
         <v>1.1500000000000001</v>
       </c>
       <c r="F29">
+        <f t="shared" si="2"/>
         <v>1.1500000000000001</v>
       </c>
       <c r="G29">
@@ -2618,7 +2374,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="7">
-        <v>2</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="J29">
         <v>1.1000000000000001</v>
@@ -2638,15 +2394,18 @@
         <v>0.7</v>
       </c>
       <c r="C30">
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="D30">
         <v>0.9</v>
       </c>
       <c r="E30">
+        <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
       <c r="F30">
+        <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
       <c r="G30">
@@ -2656,7 +2415,7 @@
         <v>8</v>
       </c>
       <c r="I30" s="7">
-        <v>3</v>
+        <v>2.6666666666666701</v>
       </c>
       <c r="J30">
         <v>1.1000000000000001</v>
@@ -2676,22 +2435,25 @@
         <v>0.57679999999999998</v>
       </c>
       <c r="C31">
+        <f t="shared" si="0"/>
         <v>2.8839999999999999</v>
       </c>
       <c r="D31">
         <v>0.9</v>
       </c>
       <c r="E31">
+        <f t="shared" si="1"/>
         <v>1.4419999999999999</v>
       </c>
       <c r="F31">
+        <f t="shared" si="2"/>
         <v>1.4419999999999999</v>
       </c>
       <c r="G31">
         <v>0.95</v>
       </c>
       <c r="H31">
-        <v>14</v>
+        <v>13.3</v>
       </c>
       <c r="I31" s="7">
         <v>3</v>
@@ -2714,15 +2476,18 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C32">
+        <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
       <c r="D32">
         <v>0.9</v>
       </c>
       <c r="E32">
+        <f t="shared" si="1"/>
         <v>0.72499999999999998</v>
       </c>
       <c r="F32">
+        <f t="shared" si="2"/>
         <v>0.72499999999999998</v>
       </c>
       <c r="G32">
@@ -2732,7 +2497,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="7">
-        <v>5</v>
+        <v>4.6666666666666679</v>
       </c>
       <c r="J32">
         <v>1.1000000000000001</v>
@@ -2752,15 +2517,18 @@
         <v>0.31240000000000001</v>
       </c>
       <c r="C33">
+        <f t="shared" si="0"/>
         <v>1.5620000000000001</v>
       </c>
       <c r="D33">
         <v>0.9</v>
       </c>
       <c r="E33">
+        <f t="shared" si="1"/>
         <v>0.78100000000000003</v>
       </c>
       <c r="F33">
+        <f t="shared" si="2"/>
         <v>0.78100000000000003</v>
       </c>
       <c r="G33">
@@ -2770,7 +2538,7 @@
         <v>14</v>
       </c>
       <c r="I33" s="7">
-        <v>4</v>
+        <v>3.6666666666666701</v>
       </c>
       <c r="J33">
         <v>1.1000000000000001</v>
@@ -2808,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CD555C-23DE-4F99-9C5E-E165D195B582}">
   <dimension ref="A1:Z73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2819,7 +2587,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -2902,80 +2670,80 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.73425320074475</v>
+        <v>1.787889897675</v>
       </c>
       <c r="C2">
-        <v>0.83352812537749998</v>
+        <v>0.85930734575000001</v>
       </c>
       <c r="D2">
-        <v>1.5266575166546998</v>
+        <v>1.57387372851</v>
       </c>
       <c r="E2">
-        <v>1.6433228597764</v>
+        <v>1.69414727812</v>
       </c>
       <c r="F2">
-        <v>1.1715144868987</v>
+        <v>1.20774689371</v>
       </c>
       <c r="G2">
-        <v>0.90885011500164992</v>
+        <v>0.93695888144499995</v>
       </c>
       <c r="H2">
-        <v>2.1406988846359503</v>
+        <v>2.2069060666350002</v>
       </c>
       <c r="I2">
-        <v>2.1616051150016498</v>
+        <v>2.2284588814449999</v>
       </c>
       <c r="J2">
-        <v>2.2401238846359499</v>
+        <v>2.3094060666349998</v>
       </c>
       <c r="K2">
-        <v>1.0337841287035501</v>
+        <v>1.0657568337150001</v>
       </c>
       <c r="L2">
-        <v>1.0574938006552999</v>
+        <v>1.0901997944899999</v>
       </c>
       <c r="M2">
-        <v>1.2452881598310999</v>
+        <v>1.28380222663</v>
       </c>
       <c r="N2">
-        <v>0.78205812107079997</v>
+        <v>0.80624548563999998</v>
       </c>
       <c r="O2">
-        <v>0.78034245420755</v>
+        <v>0.80447675691499998</v>
       </c>
       <c r="P2">
-        <v>0.78034245420755</v>
+        <v>0.80447675691499998</v>
       </c>
       <c r="Q2">
-        <v>0.77691112048104993</v>
+        <v>0.80093929946499998</v>
       </c>
       <c r="R2">
-        <v>1.29504249727455</v>
+        <v>1.335095358015</v>
       </c>
       <c r="S2">
-        <v>1.1807707861715999</v>
+        <v>1.2172894702799999</v>
       </c>
       <c r="T2">
-        <v>0.90167778440914992</v>
+        <v>0.92956472619499997</v>
       </c>
       <c r="U2">
-        <v>0.95534046889010005</v>
+        <v>0.98488708133000002</v>
       </c>
       <c r="V2">
-        <v>1.43384415885045</v>
+        <v>1.4781898544850001</v>
       </c>
       <c r="W2">
-        <v>1.5352358507721</v>
+        <v>1.5827173719300001</v>
       </c>
       <c r="X2">
-        <v>1.0874468131845001</v>
+        <v>1.12107918885</v>
       </c>
       <c r="Y2">
-        <v>1.7102338652558</v>
+        <v>1.76312769614</v>
       </c>
       <c r="Z2">
         <f t="shared" ref="Z2:Z34" si="0">MAX(E2:Y2)</f>
-        <v>2.2401238846359499</v>
+        <v>2.3094060666349998</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -2983,80 +2751,80 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.0138192960869996</v>
+        <v>2.0761023670999998</v>
       </c>
       <c r="C3">
-        <v>1.9964369307159999</v>
+        <v>2.0581824028</v>
       </c>
       <c r="D3">
-        <v>1.9703633852445499</v>
+        <v>2.031302459015</v>
       </c>
       <c r="E3">
-        <v>1.9355986572864499</v>
+        <v>1.995462533285</v>
       </c>
       <c r="F3">
-        <v>2.0312016594695002</v>
+        <v>2.09402232935</v>
       </c>
       <c r="G3">
-        <v>2.8021011978549999</v>
+        <v>2.8887641214999999</v>
       </c>
       <c r="H3">
-        <v>3.7389681764264999</v>
+        <v>3.8546063674500002</v>
       </c>
       <c r="I3">
-        <v>2.8617561978550001</v>
+        <v>2.9502641215000001</v>
       </c>
       <c r="J3">
-        <v>2.2475931764265002</v>
+        <v>2.3171063674500001</v>
       </c>
       <c r="K3">
-        <v>1.9730021094331001</v>
+        <v>2.0340227932300001</v>
       </c>
       <c r="L3">
-        <v>2.1505116594695002</v>
+        <v>2.2170223293500002</v>
       </c>
       <c r="M3">
-        <v>1.7965397454540499</v>
+        <v>1.852102830365</v>
       </c>
       <c r="N3">
-        <v>2.0051281134014998</v>
+        <v>2.0671423849499999</v>
       </c>
       <c r="O3">
-        <v>1.9391600116704999</v>
+        <v>1.99913403265</v>
       </c>
       <c r="P3">
-        <v>2.3962313024329998</v>
+        <v>2.4703415489</v>
       </c>
       <c r="Q3">
-        <v>1.89214274743825</v>
+        <v>1.950662626225</v>
       </c>
       <c r="R3">
-        <v>2.0138192960869996</v>
+        <v>2.0761023670999998</v>
       </c>
       <c r="S3">
-        <v>2.4400954767839997</v>
+        <v>2.5155623471999999</v>
       </c>
       <c r="T3">
-        <v>1.9556197454540498</v>
+        <v>2.0161028303649999</v>
       </c>
       <c r="U3">
-        <v>2.0485840228520003</v>
+        <v>2.1119422916000001</v>
       </c>
       <c r="V3">
-        <v>2.2735075689199999</v>
+        <v>2.3438222359999998</v>
       </c>
       <c r="W3">
-        <v>1.83130447341215</v>
+        <v>1.887942756095</v>
       </c>
       <c r="X3">
-        <v>2.0485840228520003</v>
+        <v>2.1119422916000001</v>
       </c>
       <c r="Y3">
-        <v>1.8784278412205</v>
+        <v>1.93652354765</v>
       </c>
       <c r="Z3">
         <f t="shared" si="0"/>
-        <v>3.7389681764264999</v>
+        <v>3.8546063674500002</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -3064,80 +2832,80 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.0064822959291999</v>
+        <v>1.0376106143599999</v>
       </c>
       <c r="C4">
-        <v>1.0217493767275498</v>
+        <v>1.0533498729149999</v>
       </c>
       <c r="D4">
-        <v>0.98510838289104985</v>
+        <v>1.0155756524649999</v>
       </c>
       <c r="E4">
-        <v>1.0064822959291999</v>
+        <v>1.0376106143599999</v>
       </c>
       <c r="F4">
-        <v>1.01869596060765</v>
+        <v>1.0502020212450001</v>
       </c>
       <c r="G4">
-        <v>1.2022788798093</v>
+        <v>1.2394627626900001</v>
       </c>
       <c r="H4">
-        <v>1.18395838289105</v>
+        <v>1.220575652465</v>
       </c>
       <c r="I4">
-        <v>1.2619338798093001</v>
+        <v>1.30096276269</v>
       </c>
       <c r="J4">
-        <v>1.2833833828910499</v>
+        <v>1.323075652465</v>
       </c>
       <c r="K4">
-        <v>1.1167076376130998</v>
+        <v>1.1512449872299999</v>
       </c>
       <c r="L4">
-        <v>1.42502707786675</v>
+        <v>1.4691000802750001</v>
       </c>
       <c r="M4">
-        <v>1.2782363325887998</v>
+        <v>1.3177694150399999</v>
       </c>
       <c r="N4">
-        <v>1.3698388169811999</v>
+        <v>1.41220496596</v>
       </c>
       <c r="O4">
-        <v>1.3270909909049</v>
+        <v>1.36813504217</v>
       </c>
       <c r="P4">
-        <v>1.5438835370085999</v>
+        <v>1.5916325123799999</v>
       </c>
       <c r="Q4">
-        <v>1.873652480344</v>
+        <v>1.9316004952000001</v>
       </c>
       <c r="R4">
-        <v>1.7637294992321999</v>
+        <v>1.8182778342599999</v>
       </c>
       <c r="S4">
-        <v>2.0316971083628501</v>
+        <v>2.0945331014050002</v>
       </c>
       <c r="T4">
-        <v>1.7854057728424502</v>
+        <v>1.8406245080850001</v>
       </c>
       <c r="U4">
-        <v>2.4058220308174998</v>
+        <v>2.48022889775</v>
       </c>
       <c r="V4">
-        <v>2.0419683189461502</v>
+        <v>2.1051219782950001</v>
       </c>
       <c r="W4">
-        <v>1.2049543451146498</v>
+        <v>1.2422209743449999</v>
       </c>
       <c r="X4">
-        <v>0.99121521532969992</v>
+        <v>1.0218713560099999</v>
       </c>
       <c r="Y4">
-        <v>1.012589128169</v>
+        <v>1.0439063177000001</v>
       </c>
       <c r="Z4">
         <f t="shared" si="0"/>
-        <v>2.4058220308174998</v>
+        <v>2.48022889775</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -3145,80 +2913,80 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.63012691120374997</v>
+        <v>0.649615372375</v>
       </c>
       <c r="C5">
-        <v>0.59927142331850003</v>
+        <v>0.61780559104999999</v>
       </c>
       <c r="D5">
-        <v>0.59734295513924995</v>
+        <v>0.61581747952499999</v>
       </c>
       <c r="E5">
-        <v>0.59155755159574996</v>
+        <v>0.60985314597499996</v>
       </c>
       <c r="F5">
-        <v>0.59734295513924995</v>
+        <v>0.61581747952499999</v>
       </c>
       <c r="G5">
-        <v>0.84054771928499994</v>
+        <v>0.8665440405</v>
       </c>
       <c r="H5">
-        <v>0.84054771928499994</v>
+        <v>0.8665440405</v>
       </c>
       <c r="I5">
-        <v>1.138822719285</v>
+        <v>1.1740440405000001</v>
       </c>
       <c r="J5">
-        <v>0.93997271928500004</v>
+        <v>0.96904404050000004</v>
       </c>
       <c r="K5">
-        <v>0.96662596480399998</v>
+        <v>0.99652161319999999</v>
       </c>
       <c r="L5">
-        <v>0.69736827533525003</v>
+        <v>0.71893636632500002</v>
       </c>
       <c r="M5">
-        <v>0.77669047691874993</v>
+        <v>0.80071183187499995</v>
       </c>
       <c r="N5">
-        <v>0.63976925110575</v>
+        <v>0.65955592897500004</v>
       </c>
       <c r="O5">
-        <v>0.63976925110575</v>
+        <v>0.65955592897500004</v>
       </c>
       <c r="P5">
-        <v>0.72655031022374994</v>
+        <v>0.74902093837499994</v>
       </c>
       <c r="Q5">
-        <v>0.61855610312249998</v>
+        <v>0.63768670424999996</v>
       </c>
       <c r="R5">
-        <v>0.60119989149774999</v>
+        <v>0.61979370257499999</v>
       </c>
       <c r="S5">
-        <v>1.0650681228284999</v>
+        <v>1.09800837405</v>
       </c>
       <c r="T5">
-        <v>0.76220835967699996</v>
+        <v>0.78578181410000003</v>
       </c>
       <c r="U5">
-        <v>0.57034440361249994</v>
+        <v>0.58798392124999999</v>
       </c>
       <c r="V5">
-        <v>0.78462214805224995</v>
+        <v>0.80888881242499999</v>
       </c>
       <c r="W5">
-        <v>0.60312835967699996</v>
+        <v>0.6217818141</v>
       </c>
       <c r="X5">
-        <v>0.80561749662474991</v>
+        <v>0.83053350167499995</v>
       </c>
       <c r="Y5">
-        <v>0.61277069957899999</v>
+        <v>0.63172237070000004</v>
       </c>
       <c r="Z5">
         <f t="shared" si="0"/>
-        <v>1.138822719285</v>
+        <v>1.1740440405000001</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -3226,80 +2994,80 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.53352561978065005</v>
+        <v>0.55002641214500003</v>
       </c>
       <c r="C6">
-        <v>0.49979968084209997</v>
+        <v>0.51525740293</v>
       </c>
       <c r="D6">
-        <v>0.54595096585190006</v>
+        <v>0.56283604727000003</v>
       </c>
       <c r="E6">
-        <v>0.55837631172430002</v>
+        <v>0.57564568219000001</v>
       </c>
       <c r="F6">
-        <v>0.51044997727574992</v>
+        <v>0.52623708997499996</v>
       </c>
       <c r="G6">
-        <v>0.99094115290225004</v>
+        <v>1.0215888174250001</v>
       </c>
       <c r="H6">
-        <v>0.76432650947930003</v>
+        <v>0.78796547369000003</v>
       </c>
       <c r="I6">
-        <v>1.0505961529022498</v>
+        <v>1.083088817425</v>
       </c>
       <c r="J6">
-        <v>0.86375150947929991</v>
+        <v>0.89046547368999995</v>
       </c>
       <c r="K6">
-        <v>1.1399180751640499</v>
+        <v>1.175173273365</v>
       </c>
       <c r="L6">
-        <v>0.87530848117985005</v>
+        <v>0.90237987750500004</v>
       </c>
       <c r="M6">
-        <v>0.57020997464930001</v>
+        <v>0.58784533469</v>
       </c>
       <c r="N6">
-        <v>0.65186224823524996</v>
+        <v>0.67202293632499999</v>
       </c>
       <c r="O6">
-        <v>1.12698381129355</v>
+        <v>1.161838980715</v>
       </c>
       <c r="P6">
-        <v>0.60452759693294988</v>
+        <v>0.62322432673499994</v>
       </c>
       <c r="Q6">
-        <v>0.66073749542899995</v>
+        <v>0.68117267569999995</v>
       </c>
       <c r="R6">
-        <v>0.84179253678954991</v>
+        <v>0.86782735751499995</v>
       </c>
       <c r="S6">
-        <v>1.2901450601957001</v>
+        <v>1.3300464538100001</v>
       </c>
       <c r="T6">
-        <v>1.37895806465825</v>
+        <v>1.4216062522249999</v>
       </c>
       <c r="U6">
-        <v>1.12816717758605</v>
+        <v>1.163058945965</v>
       </c>
       <c r="V6">
-        <v>1.3802686603508501</v>
+        <v>1.4229573818050001</v>
       </c>
       <c r="W6">
-        <v>1.03882302309885</v>
+        <v>1.0709515702050001</v>
       </c>
       <c r="X6">
-        <v>0.98616322348029994</v>
+        <v>1.01666311699</v>
       </c>
       <c r="Y6">
-        <v>0.91042778135684999</v>
+        <v>0.93858534160499996</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>1.3802686603508501</v>
+        <v>1.4229573818050001</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -3307,80 +3075,80 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.48491297106164999</v>
+        <v>0.49991027944499999</v>
       </c>
       <c r="C7">
-        <v>0.47582972318860001</v>
+        <v>0.49054610638000001</v>
       </c>
       <c r="D7">
-        <v>0.48264215894424994</v>
+        <v>0.49756923602499997</v>
       </c>
       <c r="E7">
-        <v>0.5144335264005</v>
+        <v>0.53034384165000004</v>
       </c>
       <c r="F7">
-        <v>0.49626703085324997</v>
+        <v>0.51161549572499998</v>
       </c>
       <c r="G7">
-        <v>0.72009596235499995</v>
+        <v>0.74236697149999997</v>
       </c>
       <c r="H7">
-        <v>0.70192946660889999</v>
+        <v>0.72363862537000001</v>
       </c>
       <c r="I7">
-        <v>0.77975096235499997</v>
+        <v>0.80386697149999997</v>
       </c>
       <c r="J7">
-        <v>0.80135446660889997</v>
+        <v>0.82613862537000005</v>
       </c>
       <c r="K7">
-        <v>0.72120057768430001</v>
+        <v>0.74350575018999998</v>
       </c>
       <c r="L7">
-        <v>1.3354244225553999</v>
+        <v>1.3767262088200001</v>
       </c>
       <c r="M7">
-        <v>1.2002187389266998</v>
+        <v>1.23733890611</v>
       </c>
       <c r="N7">
-        <v>0.90955480778449993</v>
+        <v>0.93768536884999998</v>
       </c>
       <c r="O7">
-        <v>1.5022367298604999</v>
+        <v>1.5486976596499999</v>
       </c>
       <c r="P7">
-        <v>0.94361698715929998</v>
+        <v>0.97280101769000005</v>
       </c>
       <c r="Q7">
-        <v>0.45993403936104998</v>
+        <v>0.474158803465</v>
       </c>
       <c r="R7">
-        <v>0.42814267190479999</v>
+        <v>0.44138419783999999</v>
       </c>
       <c r="S7">
-        <v>1.32941061970305</v>
+        <v>1.370526412065</v>
       </c>
       <c r="T7">
-        <v>3.3326343341269999</v>
+        <v>3.4357054991</v>
       </c>
       <c r="U7">
-        <v>3.1122424105365001</v>
+        <v>3.2084973304500002</v>
       </c>
       <c r="V7">
-        <v>0.64288835573235004</v>
+        <v>0.66277150075500002</v>
       </c>
       <c r="W7">
-        <v>0.44630916765090001</v>
+        <v>0.46011254397000001</v>
       </c>
       <c r="X7">
-        <v>0.42587185998624999</v>
+        <v>0.43904315462499999</v>
       </c>
       <c r="Y7">
-        <v>0.450850791488</v>
+        <v>0.46479463040000002</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>3.3326343341269999</v>
+        <v>3.4357054991</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -3388,80 +3156,80 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.20832153769449999</v>
+        <v>0.21476447185</v>
       </c>
       <c r="C8">
-        <v>0.20611166375615</v>
+        <v>0.21248625129500001</v>
       </c>
       <c r="D8">
-        <v>0.20979478692045</v>
+        <v>0.216283285485</v>
       </c>
       <c r="E8">
-        <v>0.2088126208361</v>
+        <v>0.21527074313</v>
       </c>
       <c r="F8">
-        <v>0.20439287295939998</v>
+        <v>0.21071430201999999</v>
       </c>
       <c r="G8">
-        <v>0.40962695320365</v>
+        <v>0.42229582804499999</v>
       </c>
       <c r="H8">
-        <v>0.40839924534964994</v>
+        <v>0.42103014984499998</v>
       </c>
       <c r="I8">
-        <v>0.46928195320364996</v>
+        <v>0.48379582804499999</v>
       </c>
       <c r="J8">
-        <v>0.50782424534964998</v>
+        <v>0.52353014984500001</v>
       </c>
       <c r="K8">
-        <v>0.50613250968619994</v>
+        <v>0.52178609245999996</v>
       </c>
       <c r="L8">
-        <v>0.76420440165979997</v>
+        <v>0.78783958933999998</v>
       </c>
       <c r="M8">
-        <v>0.48259144145635002</v>
+        <v>0.49751694995500001</v>
       </c>
       <c r="N8">
-        <v>0.22280848878090001</v>
+        <v>0.22969947297000001</v>
       </c>
       <c r="O8">
-        <v>1.29877153132455</v>
+        <v>1.338939723015</v>
       </c>
       <c r="P8">
-        <v>0.46638569957319997</v>
+        <v>0.48080999955999998</v>
       </c>
       <c r="Q8">
-        <v>0.37504424557580002</v>
+        <v>0.38664355214000001</v>
       </c>
       <c r="R8">
-        <v>0.27363558816985001</v>
+        <v>0.28209854450499999</v>
       </c>
       <c r="S8">
-        <v>0.67550592942830001</v>
+        <v>0.69639786539000004</v>
       </c>
       <c r="T8">
-        <v>1.0008987193690499</v>
+        <v>1.0318543498649999</v>
       </c>
       <c r="U8">
-        <v>0.79467474294554996</v>
+        <v>0.81925231231499995</v>
       </c>
       <c r="V8">
-        <v>0.70992426048754997</v>
+        <v>0.73188068091500003</v>
       </c>
       <c r="W8">
-        <v>0.52875325159664999</v>
+        <v>0.54510644494500005</v>
       </c>
       <c r="X8">
-        <v>0.55355294746354999</v>
+        <v>0.57067314171500005</v>
       </c>
       <c r="Y8">
-        <v>0.40991114465239997</v>
+        <v>0.42258880892</v>
       </c>
       <c r="Z8">
         <f t="shared" si="0"/>
-        <v>1.29877153132455</v>
+        <v>1.338939723015</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -3469,80 +3237,80 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.69349380537799998</v>
+        <v>0.71494206739999999</v>
       </c>
       <c r="C9">
-        <v>0.64795659223479996</v>
+        <v>0.66799648684000001</v>
       </c>
       <c r="D9">
-        <v>0.66722233674639997</v>
+        <v>0.68785807911999997</v>
       </c>
       <c r="E9">
-        <v>0.64795659223479996</v>
+        <v>0.66799648684000001</v>
       </c>
       <c r="F9">
-        <v>0.6549623179456</v>
+        <v>0.67521888448</v>
       </c>
       <c r="G9">
-        <v>0.84680659223479993</v>
+        <v>0.87299648683999997</v>
       </c>
       <c r="H9">
-        <v>0.86432090571639997</v>
+        <v>0.89105248012000005</v>
       </c>
       <c r="I9">
-        <v>1.3240465922347999</v>
+        <v>1.36499648684</v>
       </c>
       <c r="J9">
-        <v>0.96374590571639995</v>
+        <v>0.99355248011999997</v>
       </c>
       <c r="K9">
-        <v>1.9279526041516</v>
+        <v>1.98758000428</v>
       </c>
       <c r="L9">
-        <v>0.84783243075039993</v>
+        <v>0.87405405232</v>
       </c>
       <c r="M9">
-        <v>0.64795659223479996</v>
+        <v>0.66799648684000001</v>
       </c>
       <c r="N9">
-        <v>0.69174237434800001</v>
+        <v>0.7131364684</v>
       </c>
       <c r="O9">
-        <v>0.64795659223479996</v>
+        <v>0.66799648684000001</v>
       </c>
       <c r="P9">
-        <v>0.64795659223479996</v>
+        <v>0.66799648684000001</v>
       </c>
       <c r="Q9">
-        <v>0.69349380537799998</v>
+        <v>0.71494206739999999</v>
       </c>
       <c r="R9">
-        <v>0.64620516120479998</v>
+        <v>0.66619088784000002</v>
       </c>
       <c r="S9">
-        <v>1.1075759433179999</v>
+        <v>1.1418308693999999</v>
       </c>
       <c r="T9">
-        <v>1.8036009835228</v>
+        <v>1.85938245724</v>
       </c>
       <c r="U9">
-        <v>2.5675252620059998</v>
+        <v>2.6469332597999999</v>
       </c>
       <c r="V9">
-        <v>2.8066581820591998</v>
+        <v>2.89346204336</v>
       </c>
       <c r="W9">
-        <v>2.9878687664747998</v>
+        <v>3.08027707884</v>
       </c>
       <c r="X9">
-        <v>2.8022170518419998</v>
+        <v>2.8888835585999999</v>
       </c>
       <c r="Y9">
-        <v>0.65145945588559995</v>
+        <v>0.67160768648000002</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>2.9878687664747998</v>
+        <v>3.08027707884</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -3550,80 +3318,80 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>9.1006810326649992E-2</v>
+        <v>9.3821453944999994E-2</v>
       </c>
       <c r="C10">
-        <v>9.8595102507749999E-2</v>
+        <v>0.101644435575</v>
       </c>
       <c r="D10">
-        <v>0.1023892485983</v>
+        <v>0.10555592639</v>
       </c>
       <c r="E10">
-        <v>9.6487243590649988E-2</v>
+        <v>9.9471385144999994E-2</v>
       </c>
       <c r="F10">
-        <v>0.1036539640281</v>
+        <v>0.10685975673000001</v>
       </c>
       <c r="G10">
-        <v>0.57863348694060002</v>
+        <v>0.59652936798</v>
       </c>
       <c r="H10">
-        <v>0.29744510250774997</v>
+        <v>0.30664443557499999</v>
       </c>
       <c r="I10">
-        <v>0.63828848694060003</v>
+        <v>0.65802936798</v>
       </c>
       <c r="J10">
-        <v>0.39687010250775001</v>
+        <v>0.40914443557500002</v>
       </c>
       <c r="K10">
-        <v>0.25472409990449996</v>
+        <v>0.26260216484999999</v>
       </c>
       <c r="L10">
-        <v>0.21706195902045</v>
+        <v>0.22377521548500001</v>
       </c>
       <c r="M10">
-        <v>8.721266423610001E-2</v>
+        <v>8.9909963130000006E-2</v>
       </c>
       <c r="N10">
-        <v>8.721266423610001E-2</v>
+        <v>8.9909963130000006E-2</v>
       </c>
       <c r="O10">
-        <v>0.101546105111</v>
+        <v>0.1046867063</v>
       </c>
       <c r="P10">
-        <v>9.016366664049999E-2</v>
+        <v>9.2952233649999993E-2</v>
       </c>
       <c r="Q10">
-        <v>8.6791092293599992E-2</v>
+        <v>8.9475352879999998E-2</v>
       </c>
       <c r="R10">
-        <v>0.1909193247073</v>
+        <v>0.19682404609000001</v>
       </c>
       <c r="S10">
-        <v>1.2872349075467999</v>
+        <v>1.3270462964400001</v>
       </c>
       <c r="T10">
-        <v>0.7993948535483999</v>
+        <v>0.82411840571999995</v>
       </c>
       <c r="U10">
-        <v>0.32666544127519997</v>
+        <v>0.33676849615999999</v>
       </c>
       <c r="V10">
-        <v>0.74641905960519994</v>
+        <v>0.76950418515999996</v>
       </c>
       <c r="W10">
-        <v>0.41013665586385001</v>
+        <v>0.42282129470500002</v>
       </c>
       <c r="X10">
-        <v>0.42826424282929998</v>
+        <v>0.44150952868999999</v>
       </c>
       <c r="Y10">
-        <v>0.3995973610795</v>
+        <v>0.41195604235</v>
       </c>
       <c r="Z10">
         <f t="shared" si="0"/>
-        <v>1.2872349075467999</v>
+        <v>1.3270462964400001</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -3631,80 +3399,80 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.28159438065369996</v>
+        <v>0.29030348520999999</v>
       </c>
       <c r="C11">
-        <v>0.28064371738060001</v>
+        <v>0.28932341998</v>
       </c>
       <c r="D11">
-        <v>0.25402514613149996</v>
+        <v>0.26188159394999999</v>
       </c>
       <c r="E11">
-        <v>0.26733443175604998</v>
+        <v>0.27560250696499999</v>
       </c>
       <c r="F11">
-        <v>0.33958483971624998</v>
+        <v>0.35008746362499998</v>
       </c>
       <c r="G11">
-        <v>0.49470432975019996</v>
+        <v>0.51000446365999996</v>
       </c>
       <c r="H11">
-        <v>0.46428310520985</v>
+        <v>0.47864237650500002</v>
       </c>
       <c r="I11">
-        <v>0.55435932975019997</v>
+        <v>0.57150446365999996</v>
       </c>
       <c r="J11">
-        <v>0.56370810520985004</v>
+        <v>0.581142376505</v>
       </c>
       <c r="K11">
-        <v>0.44637836029229999</v>
+        <v>0.46018387658999999</v>
       </c>
       <c r="L11">
-        <v>0.77451504300499996</v>
+        <v>0.79846911649999996</v>
       </c>
       <c r="M11">
-        <v>0.32722621736479995</v>
+        <v>0.33734661583999997</v>
       </c>
       <c r="N11">
-        <v>0.43179917621269998</v>
+        <v>0.44515378990999999</v>
       </c>
       <c r="O11">
-        <v>0.32152223772619998</v>
+        <v>0.33146622446000001</v>
       </c>
       <c r="P11">
-        <v>0.29015035011159995</v>
+        <v>0.29912407227999999</v>
       </c>
       <c r="Q11">
-        <v>0.31106494192094997</v>
+        <v>0.32068550713499999</v>
       </c>
       <c r="R11">
-        <v>0.25972912557125</v>
+        <v>0.26776198512499999</v>
       </c>
       <c r="S11">
-        <v>0.6621035134005</v>
+        <v>0.68258094165000005</v>
       </c>
       <c r="T11">
-        <v>0.38838790122974998</v>
+        <v>0.40039989817499999</v>
       </c>
       <c r="U11">
-        <v>0.25972912557125</v>
+        <v>0.26776198512499999</v>
       </c>
       <c r="V11">
-        <v>2.2714939680845001</v>
+        <v>2.34174635885</v>
       </c>
       <c r="W11">
-        <v>1.936699121622</v>
+        <v>1.9965970326</v>
       </c>
       <c r="X11">
-        <v>0.30631162555545</v>
+        <v>0.31578518098500002</v>
       </c>
       <c r="Y11">
-        <v>0.30441029900924998</v>
+        <v>0.31382505052499998</v>
       </c>
       <c r="Z11">
         <f t="shared" si="0"/>
-        <v>2.2714939680845001</v>
+        <v>2.34174635885</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -3712,80 +3480,80 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.38537128190464998</v>
+        <v>0.39728998134499999</v>
       </c>
       <c r="C12">
-        <v>0.34990395803695001</v>
+        <v>0.36072572993500002</v>
       </c>
       <c r="D12">
-        <v>0.37247407333395</v>
+        <v>0.38399389003500001</v>
       </c>
       <c r="E12">
-        <v>0.3821469798614</v>
+        <v>0.39396595862</v>
       </c>
       <c r="F12">
-        <v>0.38698343302569999</v>
+        <v>0.39895199280999999</v>
       </c>
       <c r="G12">
-        <v>0.58422128190464995</v>
+        <v>0.602289981345</v>
       </c>
       <c r="H12">
-        <v>0.58744558414674997</v>
+        <v>0.60561400427500001</v>
       </c>
       <c r="I12">
-        <v>0.64387628190464996</v>
+        <v>0.663789981345</v>
       </c>
       <c r="J12">
-        <v>0.68687058414675006</v>
+        <v>0.70811400427500004</v>
       </c>
       <c r="K12">
-        <v>0.60893732535470002</v>
+        <v>0.62777043851000003</v>
       </c>
       <c r="L12">
-        <v>0.59979819585924998</v>
+        <v>0.61834865552499996</v>
       </c>
       <c r="M12">
-        <v>0.45308162739794999</v>
+        <v>0.46709446123499998</v>
       </c>
       <c r="N12">
-        <v>0.44824517423364996</v>
+        <v>0.46210842704499999</v>
       </c>
       <c r="O12">
-        <v>0.45469377851899995</v>
+        <v>0.46875647269999998</v>
       </c>
       <c r="P12">
-        <v>0.42728721005769998</v>
+        <v>0.44050227841</v>
       </c>
       <c r="Q12">
-        <v>0.44018441882725001</v>
+        <v>0.453798369925</v>
       </c>
       <c r="R12">
-        <v>0.55464714583675001</v>
+        <v>0.57180118127500001</v>
       </c>
       <c r="S12">
-        <v>0.86260587199154992</v>
+        <v>0.88928440411499998</v>
       </c>
       <c r="T12">
-        <v>0.67664767084799993</v>
+        <v>0.69757491839999997</v>
       </c>
       <c r="U12">
-        <v>0.46597883616749997</v>
+        <v>0.48039055274999998</v>
       </c>
       <c r="V12">
-        <v>0.69707185779309999</v>
+        <v>0.71863078123000002</v>
       </c>
       <c r="W12">
-        <v>0.4385722677062</v>
+        <v>0.45213635846</v>
       </c>
       <c r="X12">
-        <v>0.45308162739794999</v>
+        <v>0.46709446123499998</v>
       </c>
       <c r="Y12">
-        <v>0.37569837537719997</v>
+        <v>0.38731791275999999</v>
       </c>
       <c r="Z12">
         <f t="shared" si="0"/>
-        <v>0.86260587199154992</v>
+        <v>0.88928440411499998</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -3793,80 +3561,80 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.6701301535949999</v>
+        <v>1.7217836634999999</v>
       </c>
       <c r="C13">
-        <v>1.1674397781730499</v>
+        <v>1.203546163065</v>
       </c>
       <c r="D13">
-        <v>0.65617106883255005</v>
+        <v>0.67646501941500004</v>
       </c>
       <c r="E13">
-        <v>0.7556797437194499</v>
+        <v>0.77905128218499997</v>
       </c>
       <c r="F13">
-        <v>0.64416140118749998</v>
+        <v>0.66408391874999995</v>
       </c>
       <c r="G13">
-        <v>0.8035510645258499</v>
+        <v>0.82840315930499997</v>
       </c>
       <c r="H13">
-        <v>0.82928606667920002</v>
+        <v>0.85493408936000004</v>
       </c>
       <c r="I13">
-        <v>0.86320606452584991</v>
+        <v>0.88990315930499997</v>
       </c>
       <c r="J13">
-        <v>0.92871106667919989</v>
+        <v>0.95743408935999996</v>
       </c>
       <c r="K13">
-        <v>0.77235939864324998</v>
+        <v>0.79624680272500004</v>
       </c>
       <c r="L13">
-        <v>1.1941037705402999</v>
+        <v>1.2310348149899999</v>
       </c>
       <c r="M13">
-        <v>1.5603274777274501</v>
+        <v>1.6085850285850001</v>
       </c>
       <c r="N13">
-        <v>2.1470855276590002</v>
+        <v>2.2134902347000001</v>
       </c>
       <c r="O13">
-        <v>1.0233237662335999</v>
+        <v>1.05497295488</v>
       </c>
       <c r="P13">
-        <v>0.59269139688079997</v>
+        <v>0.61102205864000003</v>
       </c>
       <c r="Q13">
-        <v>0.59783839727169996</v>
+        <v>0.61632824461000002</v>
       </c>
       <c r="R13">
-        <v>0.6201420656985499</v>
+        <v>0.63932171721499997</v>
       </c>
       <c r="S13">
-        <v>1.46664376838695</v>
+        <v>1.5120038849349999</v>
       </c>
       <c r="T13">
-        <v>0.97652374900679995</v>
+        <v>1.00672551444</v>
       </c>
       <c r="U13">
-        <v>2.3014955393859999</v>
+        <v>2.3726758137999999</v>
       </c>
       <c r="V13">
-        <v>1.2942317723027499</v>
+        <v>1.3342595590749999</v>
       </c>
       <c r="W13">
-        <v>0.88263908782180001</v>
+        <v>0.90993720393999999</v>
       </c>
       <c r="X13">
-        <v>0.87062942017675005</v>
+        <v>0.89755610327500002</v>
       </c>
       <c r="Y13">
-        <v>2.2637508703829998</v>
+        <v>2.3337637838999998</v>
       </c>
       <c r="Z13">
         <f t="shared" si="0"/>
-        <v>2.3014955393859999</v>
+        <v>2.3726758137999999</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -3874,80 +3642,80 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.2760032855574996</v>
+        <v>2.3463951397499998</v>
       </c>
       <c r="C14">
-        <v>2.6236505651385</v>
+        <v>2.7047943970500001</v>
       </c>
       <c r="D14">
-        <v>2.5019740174840002</v>
+        <v>2.5793546572000001</v>
       </c>
       <c r="E14">
-        <v>2.4063710158975002</v>
+        <v>2.4807948617500002</v>
       </c>
       <c r="F14">
-        <v>2.5454299269344998</v>
+        <v>2.6241545638499999</v>
       </c>
       <c r="G14">
-        <v>2.5009268316254998</v>
+        <v>2.57827508415</v>
       </c>
       <c r="H14">
-        <v>10.705402636497999</v>
+        <v>11.036497563399999</v>
       </c>
       <c r="I14">
-        <v>10.514581831625501</v>
+        <v>10.83977508415</v>
       </c>
       <c r="J14">
-        <v>10.804827636498</v>
+        <v>11.1389975634</v>
       </c>
       <c r="K14">
-        <v>2.4959215603790001</v>
+        <v>2.5731150107</v>
       </c>
       <c r="L14">
-        <v>2.3257838300390001</v>
+        <v>2.3977152887000002</v>
       </c>
       <c r="M14">
-        <v>2.4672092887304999</v>
+        <v>2.5435147306500001</v>
       </c>
       <c r="N14">
-        <v>2.232547376107</v>
+        <v>2.3015952331</v>
       </c>
       <c r="O14">
-        <v>2.4672092887304999</v>
+        <v>2.5435147306500001</v>
       </c>
       <c r="P14">
-        <v>2.2760032855574996</v>
+        <v>2.3463951397499998</v>
       </c>
       <c r="Q14">
-        <v>2.4411357426625</v>
+        <v>2.51663478625</v>
       </c>
       <c r="R14">
-        <v>4.8017880971779991</v>
+        <v>4.9502970073999997</v>
       </c>
       <c r="S14">
-        <v>4.4284755344409996</v>
+        <v>4.5654386953000001</v>
       </c>
       <c r="T14">
-        <v>4.3803395808729997</v>
+        <v>4.5158140008999998</v>
       </c>
       <c r="U14">
-        <v>5.0172869705194998</v>
+        <v>5.1724607943500001</v>
       </c>
       <c r="V14">
-        <v>4.4686953172330002</v>
+        <v>4.6069023889</v>
       </c>
       <c r="W14">
-        <v>4.5479631412954999</v>
+        <v>4.6886217951500004</v>
       </c>
       <c r="X14">
-        <v>3.3973779692590003</v>
+        <v>3.5024515147000002</v>
       </c>
       <c r="Y14">
-        <v>2.4237533792799999</v>
+        <v>2.4987148239999999</v>
       </c>
       <c r="Z14">
         <f t="shared" si="0"/>
-        <v>10.804827636498</v>
+        <v>11.1389975634</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -3955,80 +3723,80 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.79096200664154992</v>
+        <v>0.81542474911499996</v>
       </c>
       <c r="C15">
-        <v>0.79096200664154992</v>
+        <v>0.81542474911499996</v>
       </c>
       <c r="D15">
-        <v>0.73294709976689998</v>
+        <v>0.75561556676999997</v>
       </c>
       <c r="E15">
-        <v>0.78790859032279992</v>
+        <v>0.81227689723999996</v>
       </c>
       <c r="F15">
-        <v>0.78790859032279992</v>
+        <v>0.81227689723999996</v>
       </c>
       <c r="G15">
-        <v>0.95011759668515006</v>
+        <v>0.97950267699500004</v>
       </c>
       <c r="H15">
-        <v>0.96538467748349999</v>
+        <v>0.99524193554999996</v>
       </c>
       <c r="I15">
-        <v>1.0097725966851501</v>
+        <v>1.041002676995</v>
       </c>
       <c r="J15">
-        <v>1.0648096774834999</v>
+        <v>1.09774193555</v>
       </c>
       <c r="K15">
-        <v>0.96836250336094998</v>
+        <v>0.99831185913499998</v>
       </c>
       <c r="L15">
-        <v>0.88584467748349993</v>
+        <v>0.91324193554999999</v>
       </c>
       <c r="M15">
-        <v>1.2581346763667001</v>
+        <v>1.2970460581100001</v>
       </c>
       <c r="N15">
-        <v>0.92225890059265003</v>
+        <v>0.95078237174500002</v>
       </c>
       <c r="O15">
-        <v>1.1176775338570499</v>
+        <v>1.152244880265</v>
       </c>
       <c r="P15">
-        <v>0.95889989442915002</v>
+        <v>0.98855659219500003</v>
       </c>
       <c r="Q15">
-        <v>1.4352328125139999</v>
+        <v>1.4796214562000001</v>
       </c>
       <c r="R15">
-        <v>1.4413396449526501</v>
+        <v>1.485917159745</v>
       </c>
       <c r="S15">
-        <v>1.5993842727726499</v>
+        <v>1.6488497657450001</v>
       </c>
       <c r="T15">
-        <v>1.3653066019306999</v>
+        <v>1.40753257931</v>
       </c>
       <c r="U15">
-        <v>2.8367508222860001</v>
+        <v>2.9244853838</v>
       </c>
       <c r="V15">
-        <v>2.2761753444970001</v>
+        <v>2.3465725201000001</v>
       </c>
       <c r="W15">
-        <v>1.4443930610725499</v>
+        <v>1.4890650114149999</v>
       </c>
       <c r="X15">
-        <v>0.76042784504484995</v>
+        <v>0.78394623200500002</v>
       </c>
       <c r="Y15">
-        <v>0.76653467748350002</v>
+        <v>0.79024193555</v>
       </c>
       <c r="Z15">
         <f t="shared" si="0"/>
-        <v>2.8367508222860001</v>
+        <v>2.9244853838</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -4036,80 +3804,80 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.922868350191</v>
+        <v>0.95141067030000004</v>
       </c>
       <c r="C16">
-        <v>0.95526661202310004</v>
+        <v>0.98481094023000004</v>
       </c>
       <c r="D16">
-        <v>0.88121344109849997</v>
+        <v>0.90846746504999998</v>
       </c>
       <c r="E16">
-        <v>0.88584176472870002</v>
+        <v>0.91323893271000001</v>
       </c>
       <c r="F16">
-        <v>1.2584217775875</v>
+        <v>1.2973420387500001</v>
       </c>
       <c r="G16">
-        <v>1.2003998435526999</v>
+        <v>1.23752561191</v>
       </c>
       <c r="H16">
-        <v>1.1078333804934999</v>
+        <v>1.14209626855</v>
       </c>
       <c r="I16">
-        <v>1.5583298435527</v>
+        <v>1.60652561191</v>
       </c>
       <c r="J16">
-        <v>1.2072583804935</v>
+        <v>1.2445962685500001</v>
       </c>
       <c r="K16">
-        <v>1.0310367950311998</v>
+        <v>1.0629245309599999</v>
       </c>
       <c r="L16">
-        <v>1.0144084107960001</v>
+        <v>1.0457818668000001</v>
       </c>
       <c r="M16">
-        <v>0.92518251200610002</v>
+        <v>0.95379640413</v>
       </c>
       <c r="N16">
-        <v>0.87658511866139999</v>
+        <v>0.90369599862000005</v>
       </c>
       <c r="O16">
-        <v>0.87427095684629996</v>
+        <v>0.90131026478999998</v>
       </c>
       <c r="P16">
-        <v>1.0061781659897999</v>
+        <v>1.03729707834</v>
       </c>
       <c r="Q16">
-        <v>1.4852096116053</v>
+        <v>1.53114392949</v>
       </c>
       <c r="R16">
-        <v>1.6749708601608</v>
+        <v>1.72677408264</v>
       </c>
       <c r="S16">
-        <v>2.2730604626489996</v>
+        <v>2.3433613016999999</v>
       </c>
       <c r="T16">
-        <v>2.3315955979109</v>
+        <v>2.4037068019699999</v>
       </c>
       <c r="U16">
-        <v>2.2581395767179</v>
+        <v>2.3279789450699999</v>
       </c>
       <c r="V16">
-        <v>1.5567807248988998</v>
+        <v>1.6049285823699999</v>
       </c>
       <c r="W16">
-        <v>1.5314928431349</v>
+        <v>1.5788586011700001</v>
       </c>
       <c r="X16">
-        <v>1.3695015327813</v>
+        <v>1.41185725029</v>
       </c>
       <c r="Y16">
-        <v>1.0987446290489999</v>
+        <v>1.1327264216999999</v>
       </c>
       <c r="Z16">
         <f t="shared" si="0"/>
-        <v>2.3315955979109</v>
+        <v>2.4037068019699999</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
@@ -4117,80 +3885,80 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.36750919150519995</v>
+        <v>0.37887545515999999</v>
       </c>
       <c r="C17">
-        <v>0.39058483420895002</v>
+        <v>0.40266477753500002</v>
       </c>
       <c r="D17">
-        <v>0.42667750573250002</v>
+        <v>0.43987371725000002</v>
       </c>
       <c r="E17">
-        <v>0.37756780499144998</v>
+        <v>0.38924515978500002</v>
       </c>
       <c r="F17">
-        <v>0.4142521598601</v>
+        <v>0.42706408232999998</v>
       </c>
       <c r="G17">
-        <v>0.53144988627415002</v>
+        <v>0.54788648069500001</v>
       </c>
       <c r="H17">
-        <v>0.66931205835615004</v>
+        <v>0.69001243129500001</v>
       </c>
       <c r="I17">
-        <v>0.59110488627415003</v>
+        <v>0.60938648069500001</v>
       </c>
       <c r="J17">
-        <v>0.76873705835615003</v>
+        <v>0.79251243129500004</v>
       </c>
       <c r="K17">
-        <v>0.91710006524630006</v>
+        <v>0.94546398479000004</v>
       </c>
       <c r="L17">
-        <v>0.61698948288480004</v>
+        <v>0.63607163184000004</v>
       </c>
       <c r="M17">
-        <v>0.52548859055969999</v>
+        <v>0.54174081501000004</v>
       </c>
       <c r="N17">
-        <v>0.59116541919690002</v>
+        <v>0.60944888577</v>
       </c>
       <c r="O17">
-        <v>0.48939591883729994</v>
+        <v>0.50453187508999997</v>
       </c>
       <c r="P17">
-        <v>0.66039234691045001</v>
+        <v>0.68081685248500001</v>
       </c>
       <c r="Q17">
-        <v>0.87990679257839999</v>
+        <v>0.90712040472</v>
       </c>
       <c r="R17">
-        <v>0.53436383755459993</v>
+        <v>0.55089055417999999</v>
       </c>
       <c r="S17">
-        <v>1.4045864412542499</v>
+        <v>1.4480272590250001</v>
       </c>
       <c r="T17">
-        <v>1.1821741129766501</v>
+        <v>1.2187361989450001</v>
       </c>
       <c r="U17">
-        <v>0.73908620476514997</v>
+        <v>0.76194454099499997</v>
       </c>
       <c r="V17">
-        <v>1.2473864880665499</v>
+        <v>1.2859654516150001</v>
       </c>
       <c r="W17">
-        <v>0.47578720647355</v>
+        <v>0.49050227471500002</v>
       </c>
       <c r="X17">
-        <v>0.82724699295985005</v>
+        <v>0.85283195150500002</v>
       </c>
       <c r="Y17">
-        <v>0.73435273959515002</v>
+        <v>0.75706467999500004</v>
       </c>
       <c r="Z17">
         <f t="shared" si="0"/>
-        <v>1.4045864412542499</v>
+        <v>1.4480272590250001</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
@@ -4198,80 +3966,80 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.87719573729889999</v>
+        <v>0.90432550236999998</v>
       </c>
       <c r="C18">
-        <v>0.8726541134618</v>
+        <v>0.89964341593999997</v>
       </c>
       <c r="D18">
-        <v>0.82042543834089998</v>
+        <v>0.84579942097000005</v>
       </c>
       <c r="E18">
-        <v>0.85448761771570003</v>
+        <v>0.88091506981000001</v>
       </c>
       <c r="F18">
-        <v>0.88627898517195003</v>
+        <v>0.91368967543500001</v>
       </c>
       <c r="G18">
-        <v>1.0306294981324999</v>
+        <v>1.06250463725</v>
       </c>
       <c r="H18">
-        <v>1.0442543698426499</v>
+        <v>1.0765508967449999</v>
       </c>
       <c r="I18">
-        <v>1.0902844981325002</v>
+        <v>1.1240046372500001</v>
       </c>
       <c r="J18">
-        <v>1.14367936984265</v>
+        <v>1.179050896745</v>
       </c>
       <c r="K18">
-        <v>1.3337521043956</v>
+        <v>1.3750021694800001</v>
       </c>
       <c r="L18">
-        <v>1.0669009081659</v>
+        <v>1.09989784347</v>
       </c>
       <c r="M18">
-        <v>1.0361525747789999</v>
+        <v>1.0681985306999999</v>
       </c>
       <c r="N18">
-        <v>0.97484065178505008</v>
+        <v>1.0049903626650001</v>
       </c>
       <c r="O18">
-        <v>1.1610472324865999</v>
+        <v>1.19695590978</v>
       </c>
       <c r="P18">
-        <v>1.06113150628075</v>
+        <v>1.0939500064750001</v>
       </c>
       <c r="Q18">
-        <v>1.0497774464891501</v>
+        <v>1.0822447901950001</v>
       </c>
       <c r="R18">
-        <v>0.9952779594497001</v>
+        <v>1.0260597520100001</v>
       </c>
       <c r="S18">
-        <v>1.44465432690595</v>
+        <v>1.489334357635</v>
       </c>
       <c r="T18">
-        <v>4.2835368416734996</v>
+        <v>4.4160173625499999</v>
       </c>
       <c r="U18">
-        <v>2.9640719300174996</v>
+        <v>3.0557442577499998</v>
       </c>
       <c r="V18">
-        <v>3.7896660318659996</v>
+        <v>3.9068721977999998</v>
       </c>
       <c r="W18">
-        <v>1.4721484712934501</v>
+        <v>1.517678836385</v>
       </c>
       <c r="X18">
-        <v>0.93850766029285004</v>
+        <v>0.96753367040500005</v>
       </c>
       <c r="Y18">
-        <v>1.2541505229368</v>
+        <v>1.2929386834400001</v>
       </c>
       <c r="Z18">
         <f t="shared" si="0"/>
-        <v>4.2835368416734996</v>
+        <v>4.4160173625499999</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
@@ -4279,80 +4047,80 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.1407873824483</v>
+        <v>0.14514163139</v>
       </c>
       <c r="C19">
-        <v>0.1336666776905</v>
+        <v>0.13780069865</v>
       </c>
       <c r="D19">
-        <v>0.1324389698365</v>
+        <v>0.13653502044999999</v>
       </c>
       <c r="E19">
-        <v>0.14962687800284999</v>
+        <v>0.15425451340499999</v>
       </c>
       <c r="F19">
-        <v>0.13047463746895002</v>
+        <v>0.13450993553500001</v>
       </c>
       <c r="G19">
-        <v>0.33374438534564999</v>
+        <v>0.344066376645</v>
       </c>
       <c r="H19">
-        <v>0.33079788689375</v>
+        <v>0.341028749375</v>
       </c>
       <c r="I19">
-        <v>0.39339938534565</v>
+        <v>0.405566376645</v>
       </c>
       <c r="J19">
-        <v>0.43022288689374999</v>
+        <v>0.44352874937499998</v>
       </c>
       <c r="K19">
-        <v>0.80592850299600005</v>
+        <v>0.83085412680000004</v>
       </c>
       <c r="L19">
-        <v>0.37967611390609995</v>
+        <v>0.39141867412999998</v>
       </c>
       <c r="M19">
-        <v>0.26552248629634995</v>
+        <v>0.27373452195499998</v>
       </c>
       <c r="N19">
-        <v>0.15527433333585</v>
+        <v>0.16007663230499999</v>
       </c>
       <c r="O19">
-        <v>0.15502879196389999</v>
+        <v>0.15982349687</v>
       </c>
       <c r="P19">
-        <v>0.15380108410989998</v>
+        <v>0.15855781866999999</v>
       </c>
       <c r="Q19">
-        <v>0.14938133643205001</v>
+        <v>0.154001377765</v>
       </c>
       <c r="R19">
-        <v>0.15134566879960001</v>
+        <v>0.15602646268000001</v>
       </c>
       <c r="S19">
-        <v>0.56647525329045001</v>
+        <v>0.58399510648499997</v>
       </c>
       <c r="T19">
-        <v>0.41772732310934996</v>
+        <v>0.430646724855</v>
       </c>
       <c r="U19">
-        <v>0.28811230842375002</v>
+        <v>0.29702299837500001</v>
       </c>
       <c r="V19">
-        <v>0.38408040179184999</v>
+        <v>0.395959177105</v>
       </c>
       <c r="W19">
-        <v>0.1535555425391</v>
+        <v>0.15830468303</v>
       </c>
       <c r="X19">
-        <v>0.1542921672515</v>
+        <v>0.15906408994999999</v>
       </c>
       <c r="Y19">
-        <v>0.19529760500155</v>
+        <v>0.201337737115</v>
       </c>
       <c r="Z19">
         <f t="shared" si="0"/>
-        <v>0.80592850299600005</v>
+        <v>0.83085412680000004</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
@@ -4360,80 +4128,80 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.47436421201154999</v>
+        <v>0.48903527011499998</v>
       </c>
       <c r="C20">
-        <v>0.46057169086064997</v>
+        <v>0.47481617614499999</v>
       </c>
       <c r="D20">
-        <v>0.50786033582924994</v>
+        <v>0.52356735652499997</v>
       </c>
       <c r="E20">
-        <v>0.46057169086064997</v>
+        <v>0.47481617614499999</v>
       </c>
       <c r="F20">
-        <v>0.46057169086064997</v>
+        <v>0.47481617614499999</v>
       </c>
       <c r="G20">
-        <v>0.65942169086064994</v>
+        <v>0.67981617614500001</v>
       </c>
       <c r="H20">
-        <v>0.67912529352744999</v>
+        <v>0.70012916858499996</v>
       </c>
       <c r="I20">
-        <v>1.19631669086065</v>
+        <v>1.233316176145</v>
       </c>
       <c r="J20">
-        <v>0.77855029352744998</v>
+        <v>0.802629168585</v>
       </c>
       <c r="K20">
-        <v>0.69452537813104998</v>
+        <v>0.71600554446499998</v>
       </c>
       <c r="L20">
-        <v>1.04291633205465</v>
+        <v>1.075171476345</v>
       </c>
       <c r="M20">
-        <v>0.47830493361870002</v>
+        <v>0.49309786971000003</v>
       </c>
       <c r="N20">
-        <v>0.59061546273464993</v>
+        <v>0.60888192034499999</v>
       </c>
       <c r="O20">
-        <v>0.46057169086064997</v>
+        <v>0.47481617614499999</v>
       </c>
       <c r="P20">
-        <v>0.47436421201154999</v>
+        <v>0.48903527011499998</v>
       </c>
       <c r="Q20">
-        <v>0.47436421201154999</v>
+        <v>0.48903527011499998</v>
       </c>
       <c r="R20">
-        <v>0.48224565343619996</v>
+        <v>0.49716046745999998</v>
       </c>
       <c r="S20">
-        <v>0.96485253937319992</v>
+        <v>0.99469333955999995</v>
       </c>
       <c r="T20">
-        <v>2.4579977362754</v>
+        <v>2.5340182848200001</v>
       </c>
       <c r="U20">
-        <v>3.0417435220945497</v>
+        <v>3.135818064015</v>
       </c>
       <c r="V20">
-        <v>0.97467931921224993</v>
+        <v>1.004824040425</v>
       </c>
       <c r="W20">
-        <v>1.9048457008358999</v>
+        <v>1.96375845447</v>
       </c>
       <c r="X20">
-        <v>0.47830493361870002</v>
+        <v>0.49309786971000003</v>
       </c>
       <c r="Y20">
-        <v>0.50391961422209997</v>
+        <v>0.51950475692999998</v>
       </c>
       <c r="Z20">
         <f t="shared" si="0"/>
-        <v>3.0417435220945497</v>
+        <v>3.135818064015</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
@@ -4441,80 +4209,80 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.1146148305561</v>
+        <v>0.11815961913</v>
       </c>
       <c r="C21">
-        <v>0.11840897664665</v>
+        <v>0.12207110994500001</v>
       </c>
       <c r="D21">
-        <v>0.10786968186229999</v>
+        <v>0.11120585759</v>
       </c>
       <c r="E21">
-        <v>0.10955596903574999</v>
+        <v>0.112944297975</v>
       </c>
       <c r="F21">
-        <v>0.11967369207645</v>
+        <v>0.123374940285</v>
       </c>
       <c r="G21">
-        <v>0.31599426121684998</v>
+        <v>0.32576727960500002</v>
       </c>
       <c r="H21">
-        <v>0.44752465995054996</v>
+        <v>0.46136562881499998</v>
       </c>
       <c r="I21">
-        <v>0.37564926121684999</v>
+        <v>0.38726727960500001</v>
       </c>
       <c r="J21">
-        <v>0.54694965995055</v>
+        <v>0.56386562881500002</v>
       </c>
       <c r="K21">
-        <v>0.31711672492444998</v>
+        <v>0.32692445868499997</v>
       </c>
       <c r="L21">
-        <v>0.2351895459859</v>
+        <v>0.24246344947000001</v>
       </c>
       <c r="M21">
-        <v>0.10829125380479999</v>
+        <v>0.11164046783999999</v>
       </c>
       <c r="N21">
-        <v>0.13358556120769999</v>
+        <v>0.13771707341</v>
       </c>
       <c r="O21">
-        <v>0.16688973253535</v>
+        <v>0.172051270655</v>
       </c>
       <c r="P21">
-        <v>0.1146148305561</v>
+        <v>0.11815961913</v>
       </c>
       <c r="Q21">
-        <v>0.117987404903</v>
+        <v>0.1216364999</v>
       </c>
       <c r="R21">
-        <v>0.11503640229975</v>
+        <v>0.118594229175</v>
       </c>
       <c r="S21">
-        <v>0.52545468186230004</v>
+        <v>0.54170585759000001</v>
       </c>
       <c r="T21">
-        <v>0.82342444552150007</v>
+        <v>0.84889118095000005</v>
       </c>
       <c r="U21">
-        <v>0.64031485354840001</v>
+        <v>0.66011840572000002</v>
       </c>
       <c r="V21">
-        <v>0.83494913551534999</v>
+        <v>0.86077230465499999</v>
       </c>
       <c r="W21">
-        <v>0.15171314817314999</v>
+        <v>0.156405307395</v>
       </c>
       <c r="X21">
-        <v>0.12220312273720001</v>
+        <v>0.12598260076000001</v>
       </c>
       <c r="Y21">
-        <v>0.11208539989534999</v>
+        <v>0.11555195865499999</v>
       </c>
       <c r="Z21">
         <f t="shared" si="0"/>
-        <v>0.83494913551534999</v>
+        <v>0.86077230465499999</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
@@ -4522,80 +4290,80 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.40470527332704997</v>
+        <v>0.41722193126500001</v>
       </c>
       <c r="C22">
-        <v>0.42561986513639999</v>
+        <v>0.43878336612000002</v>
       </c>
       <c r="D22">
-        <v>0.40375461005395002</v>
+        <v>0.41624186603500002</v>
       </c>
       <c r="E22">
-        <v>0.4275211916826</v>
+        <v>0.44074349658</v>
       </c>
       <c r="F22">
-        <v>0.41896522222470001</v>
+        <v>0.43192290951000001</v>
       </c>
       <c r="G22">
-        <v>0.58264068151769999</v>
+        <v>0.60066049640999997</v>
       </c>
       <c r="H22">
-        <v>0.62446986513640002</v>
+        <v>0.64378336611999998</v>
       </c>
       <c r="I22">
-        <v>0.6422956815177</v>
+        <v>0.66216049640999997</v>
       </c>
       <c r="J22">
-        <v>0.7238948651364</v>
+        <v>0.74628336612000001</v>
       </c>
       <c r="K22">
-        <v>0.6132197629317</v>
+        <v>0.63218532261000004</v>
       </c>
       <c r="L22">
-        <v>0.70273996668134997</v>
+        <v>0.724474192455</v>
       </c>
       <c r="M22">
-        <v>0.41326124258609997</v>
+        <v>0.42604251812999999</v>
       </c>
       <c r="N22">
-        <v>0.42181721204399997</v>
+        <v>0.43486310519999999</v>
       </c>
       <c r="O22">
-        <v>0.43132384457615003</v>
+        <v>0.44466375729500002</v>
       </c>
       <c r="P22">
-        <v>0.39614930386914998</v>
+        <v>0.40840134419500002</v>
       </c>
       <c r="Q22">
-        <v>0.46554772201005001</v>
+        <v>0.47994610516500003</v>
       </c>
       <c r="R22">
-        <v>0.4550904262048</v>
+        <v>0.46916538784</v>
       </c>
       <c r="S22">
-        <v>0.86887277311239997</v>
+        <v>0.89574512691999997</v>
       </c>
       <c r="T22">
-        <v>1.54296843427985</v>
+        <v>1.590689107505</v>
       </c>
       <c r="U22">
-        <v>0.39900129368845</v>
+        <v>0.411341539885</v>
       </c>
       <c r="V22">
-        <v>0.53035420209374995</v>
+        <v>0.54675690937499999</v>
       </c>
       <c r="W22">
-        <v>0.77166129276664996</v>
+        <v>0.79552710594499998</v>
       </c>
       <c r="X22">
-        <v>0.42657052840949999</v>
+        <v>0.43976343135000001</v>
       </c>
       <c r="Y22">
-        <v>0.39805063041534999</v>
+        <v>0.410361474655</v>
       </c>
       <c r="Z22">
         <f t="shared" si="0"/>
-        <v>1.54296843427985</v>
+        <v>1.590689107505</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
@@ -4603,80 +4371,80 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.33378244722414996</v>
+        <v>0.34410561569499998</v>
       </c>
       <c r="C23">
-        <v>0.35474041140009999</v>
+        <v>0.36571176433000002</v>
       </c>
       <c r="D23">
-        <v>0.35312826027905003</v>
+        <v>0.36404975286500002</v>
       </c>
       <c r="E23">
-        <v>0.35151610915800002</v>
+        <v>0.36238774140000002</v>
       </c>
       <c r="F23">
-        <v>0.41600215260805001</v>
+        <v>0.42886819856500003</v>
       </c>
       <c r="G23">
-        <v>0.55359041140010001</v>
+        <v>0.57071176433000004</v>
       </c>
       <c r="H23">
-        <v>0.53263244722415004</v>
+        <v>0.54910561569500005</v>
       </c>
       <c r="I23">
-        <v>0.61324541140010003</v>
+        <v>0.63221176433000004</v>
       </c>
       <c r="J23">
-        <v>0.63205744722414992</v>
+        <v>0.65160561569499997</v>
       </c>
       <c r="K23">
-        <v>0.57669430372909991</v>
+        <v>0.59453021002999995</v>
       </c>
       <c r="L23">
-        <v>0.52402709495955002</v>
+        <v>0.54023411851500003</v>
       </c>
       <c r="M23">
-        <v>0.39181988638884996</v>
+        <v>0.40393802720499999</v>
       </c>
       <c r="N23">
-        <v>0.40149279271745003</v>
+        <v>0.41391009558500003</v>
       </c>
       <c r="O23">
-        <v>0.414390001487</v>
+        <v>0.42720618710000002</v>
       </c>
       <c r="P23">
-        <v>0.51111906656265005</v>
+        <v>0.52692687274500005</v>
       </c>
       <c r="Q23">
-        <v>0.42083860577234999</v>
+        <v>0.43385423275500001</v>
       </c>
       <c r="R23">
-        <v>0.62396964245109998</v>
+        <v>0.64326767262999995</v>
       </c>
       <c r="S23">
-        <v>0.83681145465130002</v>
+        <v>0.86269222129000001</v>
       </c>
       <c r="T23">
-        <v>0.76692813143944993</v>
+        <v>0.79064755818499999</v>
       </c>
       <c r="U23">
-        <v>0.47242744045285001</v>
+        <v>0.48703859840500002</v>
       </c>
       <c r="V23">
-        <v>0.60195494383850001</v>
+        <v>0.62057210704999999</v>
       </c>
       <c r="W23">
-        <v>1.0624747370365</v>
+        <v>1.09533478045</v>
       </c>
       <c r="X23">
-        <v>0.43373581454190002</v>
+        <v>0.44715032427000001</v>
       </c>
       <c r="Y23">
-        <v>0.33217029630195</v>
+        <v>0.34244360443499999</v>
       </c>
       <c r="Z23">
         <f t="shared" si="0"/>
-        <v>1.0624747370365</v>
+        <v>1.09533478045</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
@@ -4684,80 +4452,80 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.9785927489463999</v>
+        <v>2.03978633912</v>
       </c>
       <c r="C24">
-        <v>1.0624266722075999</v>
+        <v>1.0952852290799999</v>
       </c>
       <c r="D24">
-        <v>0.94232999555825003</v>
+        <v>0.97147422222500002</v>
       </c>
       <c r="E24">
-        <v>1.0658580059340999</v>
+        <v>1.0988226865299999</v>
       </c>
       <c r="F24">
-        <v>2.783240482159</v>
+        <v>2.8693200847</v>
       </c>
       <c r="G24">
-        <v>1.1034353257598499</v>
+        <v>1.137562191505</v>
       </c>
       <c r="H24">
-        <v>1.1205919937958</v>
+        <v>1.15524947814</v>
       </c>
       <c r="I24">
-        <v>1.1630903257598499</v>
+        <v>1.1990621915049999</v>
       </c>
       <c r="J24">
-        <v>1.2200169937958001</v>
+        <v>1.25774947814</v>
       </c>
       <c r="K24">
-        <v>1.8700287264322499</v>
+        <v>1.9278646664250001</v>
       </c>
       <c r="L24">
-        <v>1.07021832967565</v>
+        <v>1.103317865645</v>
       </c>
       <c r="M24">
-        <v>0.9320359945776</v>
+        <v>0.96086185008000002</v>
       </c>
       <c r="N24">
-        <v>1.4553143717620001</v>
+        <v>1.5003240946</v>
       </c>
       <c r="O24">
-        <v>1.67835105702475</v>
+        <v>1.7302588216749999</v>
       </c>
       <c r="P24">
-        <v>1.0281133361357</v>
+        <v>1.05991065581</v>
       </c>
       <c r="Q24">
-        <v>2.5859387998450001</v>
+        <v>2.6659162885000001</v>
       </c>
       <c r="R24">
-        <v>3.2310295205419997</v>
+        <v>3.3309582685999999</v>
       </c>
       <c r="S24">
-        <v>3.0138178010245</v>
+        <v>3.1070286608500002</v>
       </c>
       <c r="T24">
-        <v>1.37420101826445</v>
+        <v>1.4167020806849999</v>
       </c>
       <c r="U24">
-        <v>1.1173280102408001</v>
+        <v>1.1518845466400001</v>
       </c>
       <c r="V24">
-        <v>1.5563713635395</v>
+        <v>1.6045065603499999</v>
       </c>
       <c r="W24">
-        <v>1.4879120411695002</v>
+        <v>1.5339299393500001</v>
       </c>
       <c r="X24">
-        <v>0.91659499340489992</v>
+        <v>0.94494329216999995</v>
       </c>
       <c r="Y24">
-        <v>2.3388827794910001</v>
+        <v>2.4112193603000001</v>
       </c>
       <c r="Z24">
         <f t="shared" si="0"/>
-        <v>3.2310295205419997</v>
+        <v>3.3309582685999999</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
@@ -4765,80 +4533,80 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2.4744519406369996</v>
+        <v>2.5509813820999998</v>
       </c>
       <c r="C25">
-        <v>2.4570695772544999</v>
+        <v>2.5330614198500001</v>
       </c>
       <c r="D25">
-        <v>2.5092166693904998</v>
+        <v>2.5868213086499998</v>
       </c>
       <c r="E25">
-        <v>2.6482755804274998</v>
+        <v>2.73018101075</v>
       </c>
       <c r="F25">
-        <v>4.0475558834254999</v>
+        <v>4.1727380241500001</v>
       </c>
       <c r="G25">
-        <v>2.6037724851184998</v>
+        <v>2.68430153105</v>
       </c>
       <c r="H25">
-        <v>2.7167578520759998</v>
+        <v>2.8007812907999998</v>
       </c>
       <c r="I25">
-        <v>2.6634274851185</v>
+        <v>2.7458015310500001</v>
       </c>
       <c r="J25">
-        <v>2.8161828520759999</v>
+        <v>2.9032812907999999</v>
       </c>
       <c r="K25">
-        <v>2.5640024851184999</v>
+        <v>2.6433015310500001</v>
       </c>
       <c r="L25">
-        <v>2.6024531233224999</v>
+        <v>2.68294136425</v>
       </c>
       <c r="M25">
-        <v>2.500525486705</v>
+        <v>2.5778613264999999</v>
       </c>
       <c r="N25">
-        <v>2.5352902154584998</v>
+        <v>2.6137012530499999</v>
       </c>
       <c r="O25">
-        <v>2.5787461249090002</v>
+        <v>2.6585011597000001</v>
       </c>
       <c r="P25">
-        <v>2.5787461249090002</v>
+        <v>2.6585011597000001</v>
       </c>
       <c r="Q25">
-        <v>2.9959228619969998</v>
+        <v>3.0885802701</v>
       </c>
       <c r="R25">
-        <v>2.4483783945690001</v>
+        <v>2.5241014377000002</v>
       </c>
       <c r="S25">
-        <v>5.0075555219555001</v>
+        <v>5.16242837315</v>
       </c>
       <c r="T25">
-        <v>4.5905679250220004</v>
+        <v>4.7325442526000003</v>
       </c>
       <c r="U25">
-        <v>3.9572949135144997</v>
+        <v>4.07968547785</v>
       </c>
       <c r="V25">
-        <v>4.4168803722059993</v>
+        <v>4.5534849197999998</v>
       </c>
       <c r="W25">
-        <v>4.5917511978550003</v>
+        <v>4.7337641215000001</v>
       </c>
       <c r="X25">
-        <v>4.7221189281949991</v>
+        <v>4.8681638434999996</v>
       </c>
       <c r="Y25">
-        <v>3.2045112285525001</v>
+        <v>3.30361982325</v>
       </c>
       <c r="Z25">
         <f t="shared" si="0"/>
-        <v>5.0075555219555001</v>
+        <v>5.16242837315</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
@@ -4846,80 +4614,80 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.87047805197744998</v>
+        <v>0.89740005358499997</v>
       </c>
       <c r="C26">
-        <v>0.86131780341889996</v>
+        <v>0.88795649837000001</v>
       </c>
       <c r="D26">
-        <v>0.9681873684108</v>
+        <v>0.99813130764000002</v>
       </c>
       <c r="E26">
-        <v>0.86437121973764997</v>
+        <v>0.89110435024500001</v>
       </c>
       <c r="F26">
-        <v>0.87047805197744998</v>
+        <v>0.89740005358499997</v>
       </c>
       <c r="G26">
-        <v>1.0845951325769501</v>
+        <v>1.118139311935</v>
       </c>
       <c r="H26">
-        <v>1.0265802259011501</v>
+        <v>1.0583301297950001</v>
       </c>
       <c r="I26">
-        <v>1.1442501325769499</v>
+        <v>1.1796393119349999</v>
       </c>
       <c r="J26">
-        <v>1.1260052259011502</v>
+        <v>1.1608301297950001</v>
       </c>
       <c r="K26">
-        <v>1.4234487342284499</v>
+        <v>1.467472921885</v>
       </c>
       <c r="L26">
-        <v>0.9653607228194</v>
+        <v>0.99521724002</v>
       </c>
       <c r="M26">
-        <v>0.87963830033714996</v>
+        <v>0.90684360859500002</v>
       </c>
       <c r="N26">
-        <v>0.84910413893929992</v>
+        <v>0.87536509168999999</v>
       </c>
       <c r="O26">
-        <v>0.88269171645705002</v>
+        <v>0.909991460265</v>
       </c>
       <c r="P26">
-        <v>2.291191701097</v>
+        <v>2.3620533000999999</v>
       </c>
       <c r="Q26">
-        <v>1.8125314567305</v>
+        <v>1.86858913065</v>
       </c>
       <c r="R26">
-        <v>1.2307811567106999</v>
+        <v>1.26884655331</v>
       </c>
       <c r="S26">
-        <v>1.8468382060949999</v>
+        <v>1.9039569135000001</v>
       </c>
       <c r="T26">
-        <v>1.47669454141655</v>
+        <v>1.5223655066149999</v>
       </c>
       <c r="U26">
-        <v>1.4445202866944999</v>
+        <v>1.48919617185</v>
       </c>
       <c r="V26">
-        <v>1.3929901630730499</v>
+        <v>1.436072333065</v>
       </c>
       <c r="W26">
-        <v>0.88269171645705002</v>
+        <v>0.909991460265</v>
       </c>
       <c r="X26">
-        <v>0.8949053811355</v>
+        <v>0.92258286715000004</v>
       </c>
       <c r="Y26">
-        <v>0.88879854869684993</v>
+        <v>0.91628716360499995</v>
       </c>
       <c r="Z26">
         <f t="shared" si="0"/>
-        <v>2.291191701097</v>
+        <v>2.3620533000999999</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
@@ -4927,80 +4695,80 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.11181900154460001</v>
+        <v>0.11527732118</v>
       </c>
       <c r="C27">
-        <v>0.12377550286399999</v>
+        <v>0.12760361119999999</v>
       </c>
       <c r="D27">
-        <v>0.12608966448025</v>
+        <v>0.12998934482499999</v>
       </c>
       <c r="E27">
-        <v>0.12608966448025</v>
+        <v>0.12998934482499999</v>
       </c>
       <c r="F27">
-        <v>0.11297608225329998</v>
+        <v>0.11647018788999999</v>
       </c>
       <c r="G27">
-        <v>0.33303923003769997</v>
+        <v>0.34333941240999999</v>
       </c>
       <c r="H27">
-        <v>0.3156830182141</v>
+        <v>0.32544641053000001</v>
       </c>
       <c r="I27">
-        <v>0.39269423003769999</v>
+        <v>0.40483941240999999</v>
       </c>
       <c r="J27">
-        <v>0.41510801821409998</v>
+        <v>0.42794641052999999</v>
       </c>
       <c r="K27">
-        <v>0.37889320804929999</v>
+        <v>0.39061155468999997</v>
       </c>
       <c r="L27">
-        <v>0.31212465652255</v>
+        <v>0.32177799641499999</v>
       </c>
       <c r="M27">
-        <v>0.26879629463214999</v>
+        <v>0.27710958209499997</v>
       </c>
       <c r="N27">
-        <v>0.31430813889004999</v>
+        <v>0.32402900916499999</v>
       </c>
       <c r="O27">
-        <v>0.1924289628867</v>
+        <v>0.19838037411000001</v>
       </c>
       <c r="P27">
-        <v>0.1924289628867</v>
+        <v>0.19838037411000001</v>
       </c>
       <c r="Q27">
-        <v>0.16928734712190002</v>
+        <v>0.17452303827000001</v>
       </c>
       <c r="R27">
-        <v>0.1662017984328</v>
+        <v>0.17134206024000001</v>
       </c>
       <c r="S27">
-        <v>0.58532957277734998</v>
+        <v>0.60343254925500001</v>
       </c>
       <c r="T27">
-        <v>0.18805882609649999</v>
+        <v>0.19387507844999999</v>
       </c>
       <c r="U27">
-        <v>0.32125062373879998</v>
+        <v>0.33118621003999998</v>
       </c>
       <c r="V27">
-        <v>0.4105636426907</v>
+        <v>0.42326148731000002</v>
       </c>
       <c r="W27">
-        <v>0.23176970956755</v>
+        <v>0.238937844915</v>
       </c>
       <c r="X27">
-        <v>0.21325641703525</v>
+        <v>0.219851976325</v>
       </c>
       <c r="Y27">
-        <v>0.19860006046375001</v>
+        <v>0.204742330375</v>
       </c>
       <c r="Z27">
         <f t="shared" si="0"/>
-        <v>0.58532957277734998</v>
+        <v>0.60343254925500001</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
@@ -5008,80 +4776,80 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.71006907737475</v>
+        <v>0.73202997667500003</v>
       </c>
       <c r="C28">
-        <v>0.68048492026109997</v>
+        <v>0.70153084563000001</v>
       </c>
       <c r="D28">
-        <v>0.73136967044089995</v>
+        <v>0.75398935096999997</v>
       </c>
       <c r="E28">
-        <v>0.73077798729464993</v>
+        <v>0.75337936834499997</v>
       </c>
       <c r="F28">
-        <v>0.67634313823734993</v>
+        <v>0.69726096725499997</v>
       </c>
       <c r="G28">
-        <v>0.91483590883724997</v>
+        <v>0.94312980292500004</v>
       </c>
       <c r="H28">
-        <v>0.94501174909714991</v>
+        <v>0.97423891659499995</v>
       </c>
       <c r="I28">
-        <v>0.97449090883724998</v>
+        <v>1.004629802925</v>
       </c>
       <c r="J28">
-        <v>1.04443674909715</v>
+        <v>1.0767389165950001</v>
       </c>
       <c r="K28">
-        <v>1.2703102475495001</v>
+        <v>1.3095981933500001</v>
       </c>
       <c r="L28">
-        <v>1.0684190666700999</v>
+        <v>1.1014629553299999</v>
       </c>
       <c r="M28">
-        <v>0.82663065639059996</v>
+        <v>0.85219655297999997</v>
       </c>
       <c r="N28">
-        <v>0.94319223520759998</v>
+        <v>0.97236312908</v>
       </c>
       <c r="O28">
-        <v>0.82308055751310005</v>
+        <v>0.84853665723000005</v>
       </c>
       <c r="P28">
-        <v>0.71125244366725004</v>
+        <v>0.73324994192500004</v>
       </c>
       <c r="Q28">
-        <v>0.68344333599234997</v>
+        <v>0.70458075875500004</v>
       </c>
       <c r="R28">
-        <v>1.3064856844200499</v>
+        <v>1.3468924581649999</v>
       </c>
       <c r="S28">
-        <v>1.6264429660841999</v>
+        <v>1.67674532586</v>
       </c>
       <c r="T28">
-        <v>1.4306341469635999</v>
+        <v>1.47488056388</v>
       </c>
       <c r="U28">
-        <v>1.1141886632807501</v>
+        <v>1.148648106475</v>
       </c>
       <c r="V28">
-        <v>1.2106774797749</v>
+        <v>1.2481211131700001</v>
       </c>
       <c r="W28">
-        <v>1.7265807152747998</v>
+        <v>1.77998011884</v>
       </c>
       <c r="X28">
-        <v>1.2615177657027499</v>
+        <v>1.300533779075</v>
       </c>
       <c r="Y28">
-        <v>0.67693482138359995</v>
+        <v>0.69787094987999998</v>
       </c>
       <c r="Z28">
         <f t="shared" si="0"/>
-        <v>1.7265807152747998</v>
+        <v>1.77998011884</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
@@ -5089,80 +4857,80 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.72334822688410005</v>
+        <v>0.74571982153000005</v>
       </c>
       <c r="C29">
-        <v>0.72334822688410005</v>
+        <v>0.74571982153000005</v>
       </c>
       <c r="D29">
-        <v>0.72334822688410005</v>
+        <v>0.74571982153000005</v>
       </c>
       <c r="E29">
-        <v>0.72561903900150004</v>
+        <v>0.74806086495000002</v>
       </c>
       <c r="F29">
-        <v>0.79828502178704996</v>
+        <v>0.82297424926499996</v>
       </c>
       <c r="G29">
-        <v>0.95171878242179997</v>
+        <v>0.98115338393999996</v>
       </c>
       <c r="H29">
-        <v>0.91311497920989992</v>
+        <v>0.94135564866999999</v>
       </c>
       <c r="I29">
-        <v>1.0113737824218001</v>
+        <v>1.0426533839400001</v>
       </c>
       <c r="J29">
-        <v>1.0125399792098999</v>
+        <v>1.0438556486699999</v>
       </c>
       <c r="K29">
-        <v>0.87334497920989995</v>
+        <v>0.90035564866999995</v>
       </c>
       <c r="L29">
-        <v>0.8267625432554</v>
+        <v>0.85233251882000005</v>
       </c>
       <c r="M29">
-        <v>0.78466014987805</v>
+        <v>0.80892798956500001</v>
       </c>
       <c r="N29">
-        <v>0.74151472263020002</v>
+        <v>0.76444816766000001</v>
       </c>
       <c r="O29">
-        <v>0.78238933795949994</v>
+        <v>0.80658694634999994</v>
       </c>
       <c r="P29">
-        <v>0.77330609008645002</v>
+        <v>0.79722277328500002</v>
       </c>
       <c r="Q29">
-        <v>0.83688882499895001</v>
+        <v>0.86277198453500004</v>
       </c>
       <c r="R29">
-        <v>0.83007638924329996</v>
+        <v>0.85574885488999997</v>
       </c>
       <c r="S29">
-        <v>1.2749111326636</v>
+        <v>1.3143413738800001</v>
       </c>
       <c r="T29">
-        <v>0.88518976520735004</v>
+        <v>0.91256676825500005</v>
       </c>
       <c r="U29">
-        <v>3.1690127094945</v>
+        <v>3.2670234118499999</v>
       </c>
       <c r="V29">
-        <v>2.7297645490474998</v>
+        <v>2.8141902567499999</v>
       </c>
       <c r="W29">
-        <v>1.30694690108705</v>
+        <v>1.347367939265</v>
       </c>
       <c r="X29">
-        <v>0.84824288479054999</v>
+        <v>0.87447720081500002</v>
       </c>
       <c r="Y29">
-        <v>0.85505532074504997</v>
+        <v>0.881500330665</v>
       </c>
       <c r="Z29">
         <f t="shared" si="0"/>
-        <v>3.1690127094945</v>
+        <v>3.2670234118499999</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
@@ -5170,80 +4938,80 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.5730741527805</v>
+        <v>0.59079809564999997</v>
       </c>
       <c r="C30">
-        <v>0.59204488323324989</v>
+        <v>0.61035554972499995</v>
       </c>
       <c r="D30">
-        <v>0.53934840931149997</v>
+        <v>0.55602928794999995</v>
       </c>
       <c r="E30">
-        <v>0.54777984517875</v>
+        <v>0.56472148987500004</v>
       </c>
       <c r="F30">
-        <v>0.59836846038225</v>
+        <v>0.616874701425</v>
       </c>
       <c r="G30">
-        <v>0.78457130608424996</v>
+        <v>0.80883639802499996</v>
       </c>
       <c r="H30">
-        <v>1.44222329975275</v>
+        <v>1.486828144075</v>
       </c>
       <c r="I30">
-        <v>1.0828463060842501</v>
+        <v>1.1163363980250001</v>
       </c>
       <c r="J30">
-        <v>1.5416482997527499</v>
+        <v>1.589328144075</v>
       </c>
       <c r="K30">
-        <v>0.94926362462224989</v>
+        <v>0.97862229342499996</v>
       </c>
       <c r="L30">
-        <v>0.69870772992950003</v>
+        <v>0.72031724735000002</v>
       </c>
       <c r="M30">
-        <v>0.5414562690239999</v>
+        <v>0.55820233919999995</v>
       </c>
       <c r="N30">
-        <v>0.66792780603849988</v>
+        <v>0.68858536704999995</v>
       </c>
       <c r="O30">
-        <v>0.83444866267675</v>
+        <v>0.86025635327500005</v>
       </c>
       <c r="P30">
-        <v>0.5730741527805</v>
+        <v>0.59079809564999997</v>
       </c>
       <c r="Q30">
-        <v>0.58993702451499996</v>
+        <v>0.60818249950000003</v>
       </c>
       <c r="R30">
-        <v>0.57518201149874992</v>
+        <v>0.59297114587499999</v>
       </c>
       <c r="S30">
-        <v>0.95693340931149995</v>
+        <v>0.98652928794999994</v>
       </c>
       <c r="T30">
-        <v>3.8785022276075001</v>
+        <v>3.9984559047500001</v>
       </c>
       <c r="U30">
-        <v>3.201574267742</v>
+        <v>3.3005920286000001</v>
       </c>
       <c r="V30">
-        <v>3.3793456775767496</v>
+        <v>3.4838615232749999</v>
       </c>
       <c r="W30">
-        <v>0.75856574086575002</v>
+        <v>0.78202653697500002</v>
       </c>
       <c r="X30">
-        <v>0.61101561368599999</v>
+        <v>0.62991300380000004</v>
       </c>
       <c r="Y30">
-        <v>0.56042699947675001</v>
+        <v>0.57775979327500004</v>
       </c>
       <c r="Z30">
         <f t="shared" si="0"/>
-        <v>3.8785022276075001</v>
+        <v>3.9984559047500001</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
@@ -5251,80 +5019,80 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.26070784140924996</v>
+        <v>0.26877097052499999</v>
       </c>
       <c r="C31">
-        <v>0.25632926383424998</v>
+        <v>0.26425697302500001</v>
       </c>
       <c r="D31">
-        <v>0.25961319701550001</v>
+        <v>0.26764247115000001</v>
       </c>
       <c r="E31">
-        <v>0.25632926383424998</v>
+        <v>0.26425697302500001</v>
       </c>
       <c r="F31">
-        <v>0.25742390822799999</v>
+        <v>0.26538547239999999</v>
       </c>
       <c r="G31">
-        <v>0.45736855262174997</v>
+        <v>0.47151397177499998</v>
       </c>
       <c r="H31">
-        <v>0.45517926383425</v>
+        <v>0.46925697302500002</v>
       </c>
       <c r="I31">
-        <v>0.75564355262174998</v>
+        <v>0.77901397177499998</v>
       </c>
       <c r="J31">
-        <v>0.55460426383424999</v>
+        <v>0.57175697302499995</v>
       </c>
       <c r="K31">
-        <v>0.43401822051649996</v>
+        <v>0.44744146444999999</v>
       </c>
       <c r="L31">
-        <v>0.39205893172899997</v>
+        <v>0.4041844657</v>
       </c>
       <c r="M31">
-        <v>0.42052594477025002</v>
+        <v>0.43353190182500001</v>
       </c>
       <c r="N31">
-        <v>0.30011504554974999</v>
+        <v>0.30939695417500002</v>
       </c>
       <c r="O31">
-        <v>0.25742390822799999</v>
+        <v>0.26538547239999999</v>
       </c>
       <c r="P31">
-        <v>0.26289713119099994</v>
+        <v>0.27102797029999998</v>
       </c>
       <c r="Q31">
-        <v>0.25742390822799999</v>
+        <v>0.26538547239999999</v>
       </c>
       <c r="R31">
-        <v>0.28916859962374997</v>
+        <v>0.29811195837499999</v>
       </c>
       <c r="S31">
-        <v>0.68157677558474994</v>
+        <v>0.70265646967499995</v>
       </c>
       <c r="T31">
-        <v>0.42763800691050002</v>
+        <v>0.44086392465000002</v>
       </c>
       <c r="U31">
-        <v>1.6727993012369999</v>
+        <v>1.7245353620999999</v>
       </c>
       <c r="V31">
-        <v>0.62375452333949999</v>
+        <v>0.64304590034999998</v>
       </c>
       <c r="W31">
-        <v>1.6574742777359999</v>
+        <v>1.7087363687999999</v>
       </c>
       <c r="X31">
-        <v>1.7001654150577501</v>
+        <v>1.752747850575</v>
       </c>
       <c r="Y31">
-        <v>0.25961319701550001</v>
+        <v>0.26764247115000001</v>
       </c>
       <c r="Z31">
         <f t="shared" si="0"/>
-        <v>1.7001654150577501</v>
+        <v>1.752747850575</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
@@ -5332,80 +5100,80 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.35829369207645001</v>
+        <v>0.36937494028500001</v>
       </c>
       <c r="C32">
-        <v>0.35154854338265001</v>
+        <v>0.36242117874500002</v>
       </c>
       <c r="D32">
-        <v>0.3612446946797</v>
+        <v>0.37241721101000003</v>
       </c>
       <c r="E32">
-        <v>0.36040155099354998</v>
+        <v>0.371547990715</v>
       </c>
       <c r="F32">
-        <v>0.34691125380479998</v>
+        <v>0.35764046783999998</v>
       </c>
       <c r="G32">
-        <v>0.5537711177295499</v>
+        <v>0.57089805951499994</v>
       </c>
       <c r="H32">
-        <v>0.56262412534045003</v>
+        <v>0.58002487148500004</v>
       </c>
       <c r="I32">
-        <v>0.61342611772955002</v>
+        <v>0.63239805951500005</v>
       </c>
       <c r="J32">
-        <v>0.66204912534044991</v>
+        <v>0.68252487148499996</v>
       </c>
       <c r="K32">
-        <v>0.53507970729824994</v>
+        <v>0.55162856422499995</v>
       </c>
       <c r="L32">
-        <v>0.52692759165129999</v>
+        <v>0.54322432128999998</v>
       </c>
       <c r="M32">
-        <v>0.34859754077939997</v>
+        <v>0.35937890802</v>
       </c>
       <c r="N32">
-        <v>0.34311710751539998</v>
+        <v>0.35372897681999999</v>
       </c>
       <c r="O32">
-        <v>0.34522496663134999</v>
+        <v>0.35590202745499999</v>
       </c>
       <c r="P32">
-        <v>0.41267645297280003</v>
+        <v>0.42543964224000003</v>
       </c>
       <c r="Q32">
-        <v>0.34353867945790001</v>
+        <v>0.35416358707000001</v>
       </c>
       <c r="R32">
-        <v>0.34564653837499998</v>
+        <v>0.3563366375</v>
       </c>
       <c r="S32">
-        <v>1.5587375071307998</v>
+        <v>1.6069458836399999</v>
       </c>
       <c r="T32">
-        <v>0.97610974290909991</v>
+        <v>1.00629870403</v>
       </c>
       <c r="U32">
-        <v>0.86755241507789993</v>
+        <v>0.89438393306999997</v>
       </c>
       <c r="V32">
-        <v>0.94330345221144996</v>
+        <v>0.97247778578499999</v>
       </c>
       <c r="W32">
-        <v>0.37347027643865</v>
+        <v>0.38502090354500002</v>
       </c>
       <c r="X32">
-        <v>0.36756827143099996</v>
+        <v>0.3789363623</v>
       </c>
       <c r="Y32">
-        <v>0.35576426121685001</v>
+        <v>0.366767279605</v>
       </c>
       <c r="Z32">
         <f t="shared" si="0"/>
-        <v>1.5587375071307998</v>
+        <v>1.6069458836399999</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
@@ -5413,80 +5181,80 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.69434596213924993</v>
+        <v>0.715820579525</v>
       </c>
       <c r="C33">
-        <v>0.72666851322579995</v>
+        <v>0.74914279713999998</v>
       </c>
       <c r="D33">
-        <v>0.69434596213924993</v>
+        <v>0.715820579525</v>
       </c>
       <c r="E33">
-        <v>0.70004994177784996</v>
+        <v>0.72170097090499996</v>
       </c>
       <c r="F33">
-        <v>0.69529662541235004</v>
+        <v>0.71680064475500005</v>
       </c>
       <c r="G33">
-        <v>0.91601188049479998</v>
+        <v>0.94434214484000001</v>
       </c>
       <c r="H33">
-        <v>0.89985060505094994</v>
+        <v>0.92768103613499997</v>
       </c>
       <c r="I33">
-        <v>0.97566688049479988</v>
+        <v>1.0058421448399999</v>
       </c>
       <c r="J33">
-        <v>0.99927560505094992</v>
+        <v>1.0301810361349999</v>
       </c>
       <c r="K33">
-        <v>0.90286045194275</v>
+        <v>0.93078397107499999</v>
       </c>
       <c r="L33">
-        <v>0.86404111521585003</v>
+        <v>0.89076403630500001</v>
       </c>
       <c r="M33">
-        <v>0.78560963556144991</v>
+        <v>0.80990684078499997</v>
       </c>
       <c r="N33">
-        <v>1.1554176448203499</v>
+        <v>1.1911522111549999</v>
       </c>
       <c r="O33">
-        <v>0.72286586013340004</v>
+        <v>0.74522253622000001</v>
       </c>
       <c r="P33">
-        <v>0.73142182939244993</v>
+        <v>0.75404312308499999</v>
       </c>
       <c r="Q33">
-        <v>0.70480325814334999</v>
+        <v>0.72660129705499998</v>
       </c>
       <c r="R33">
-        <v>0.68674065615329993</v>
+        <v>0.70798005788999996</v>
       </c>
       <c r="S33">
-        <v>1.1024243296070999</v>
+        <v>1.13651992743</v>
       </c>
       <c r="T33">
-        <v>0.87378453335674999</v>
+        <v>0.90080879727499996</v>
       </c>
       <c r="U33">
-        <v>0.68198733978780002</v>
+        <v>0.70307973174000005</v>
       </c>
       <c r="V33">
-        <v>0.89509728868544991</v>
+        <v>0.92278070998499995</v>
       </c>
       <c r="W33">
-        <v>0.69529662541235004</v>
+        <v>0.71680064475500005</v>
       </c>
       <c r="X33">
-        <v>0.71335922740239999</v>
+        <v>0.73542188391999996</v>
       </c>
       <c r="Y33">
-        <v>0.73142182939244993</v>
+        <v>0.75404312308499999</v>
       </c>
       <c r="Z33">
         <f t="shared" si="0"/>
-        <v>1.1554176448203499</v>
+        <v>1.1911522111549999</v>
       </c>
     </row>
     <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
@@ -5494,81 +5262,382 @@
         <v>33</v>
       </c>
       <c r="B34" s="6">
-        <v>1.9601397928100002</v>
+        <v>2.0207626730000001</v>
       </c>
       <c r="C34" s="6">
-        <v>1.8893624284599999</v>
+        <v>1.947796318</v>
       </c>
       <c r="D34" s="6">
-        <v>1.9601397928100002</v>
+        <v>2.0207626730000001</v>
       </c>
       <c r="E34" s="6">
-        <v>2.0859662188599999</v>
+        <v>2.1504806379999999</v>
       </c>
       <c r="F34" s="6">
-        <v>1.8028567604900001</v>
+        <v>1.8586152170000001</v>
       </c>
       <c r="G34" s="6">
-        <v>2.9301397928099999</v>
+        <v>3.0207626730000001</v>
       </c>
       <c r="H34" s="6">
-        <v>1.9837322482399999</v>
+        <v>2.0450847919999999</v>
       </c>
       <c r="I34" s="6">
-        <v>1.9129548838899999</v>
+        <v>1.972118437</v>
       </c>
       <c r="J34" s="6">
-        <v>2.4530039446200003</v>
+        <v>2.5288700460000002</v>
       </c>
       <c r="K34" s="6">
-        <v>3.9550832952300001</v>
+        <v>4.0774054590000004</v>
       </c>
       <c r="L34" s="6">
-        <v>2.4870379524399997</v>
+        <v>2.5639566519999999</v>
       </c>
       <c r="M34" s="6">
-        <v>3.2105399024699999</v>
+        <v>3.309834951</v>
       </c>
       <c r="N34" s="6">
-        <v>2.1882001904499999</v>
+        <v>2.2558764849999999</v>
       </c>
       <c r="O34" s="6">
-        <v>2.0938303706700001</v>
+        <v>2.158588011</v>
       </c>
       <c r="P34" s="6">
-        <v>2.1960643422600001</v>
+        <v>2.263983858</v>
       </c>
       <c r="Q34" s="6">
-        <v>2.3690756782000002</v>
+        <v>2.4423460600000002</v>
       </c>
       <c r="R34" s="6">
-        <v>2.2039284940699999</v>
+        <v>2.2720912310000001</v>
       </c>
       <c r="S34" s="6">
-        <v>4.4611247389300006</v>
+        <v>4.5990976690000007</v>
       </c>
       <c r="T34" s="6">
-        <v>2.8802719230599996</v>
+        <v>2.9693524979999997</v>
       </c>
       <c r="U34" s="6">
-        <v>2.5184945587100001</v>
+        <v>2.5963861430000001</v>
       </c>
       <c r="V34" s="6">
-        <v>3.2132492521499998</v>
+        <v>3.312628095</v>
       </c>
       <c r="W34" s="6">
-        <v>3.4150078446799998</v>
+        <v>3.520626644</v>
       </c>
       <c r="X34" s="6">
-        <v>2.0466454607799998</v>
+        <v>2.109943774</v>
       </c>
       <c r="Y34" s="6">
-        <v>1.8028567604900001</v>
+        <v>1.8586152170000001</v>
       </c>
       <c r="Z34">
         <f t="shared" si="0"/>
-        <v>4.4611247389300006</v>
-      </c>
+        <v>4.5990976690000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+    </row>
+    <row r="65" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+    </row>
+    <row r="66" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+    </row>
+    <row r="67" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+    </row>
+    <row r="68" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
     </row>
     <row r="69" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C69" s="6"/>
